--- a/apps/analysis/formats/day_analysis2.xlsx
+++ b/apps/analysis/formats/day_analysis2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="420">
   <si>
     <t>standard_dry_weight_from</t>
   </si>
@@ -37,9 +37,15 @@
     <t>weight_ok</t>
   </si>
   <si>
+    <t>machine_id</t>
+  </si>
+  <si>
     <t>mold_name</t>
   </si>
   <si>
+    <t>زوايا غسالة كليوباترا</t>
+  </si>
+  <si>
     <t>c_t_standard_per_second</t>
   </si>
   <si>
@@ -49,18 +55,30 @@
     <t>rat_actually</t>
   </si>
   <si>
+    <t>c_t_actually</t>
+  </si>
+  <si>
     <t>c_t_nonconfomity_count</t>
   </si>
   <si>
     <t>ct_ok</t>
   </si>
   <si>
+    <t>زانوسى العبد 305</t>
+  </si>
+  <si>
+    <t>طقم سخان نبتون ذو 3 اطقم</t>
+  </si>
+  <si>
+    <t>طقم سخان نبتون ذو 4 اطقم</t>
+  </si>
+  <si>
+    <t>كفر سخان فرنساوى 085/قاعده سخان فرنساوى 086</t>
+  </si>
+  <si>
     <t>machine_type</t>
   </si>
   <si>
-    <t>machine_id</t>
-  </si>
-  <si>
     <t>number_scrab_by_item</t>
   </si>
   <si>
@@ -103,122 +121,97 @@
     <t>new_machine</t>
   </si>
   <si>
+    <t>LG65UP77_TB</t>
+  </si>
+  <si>
+    <t>LG65UM73</t>
+  </si>
+  <si>
+    <t>LG 65 UM 73 top&amp;bottom</t>
+  </si>
+  <si>
     <t>old_machine</t>
   </si>
   <si>
-    <t>LG65UP77_TB</t>
-  </si>
-  <si>
-    <t>LG43LM63-UM73</t>
-  </si>
-  <si>
-    <t>كفر غسالة LG/زوايا غسالة LG</t>
-  </si>
-  <si>
-    <t>-قاعدة غسالة Lgo</t>
-  </si>
-  <si>
-    <t>صندوق سمك 25 ك</t>
-  </si>
-  <si>
-    <t>فوم صندوق سمك 35 ك</t>
-  </si>
-  <si>
-    <t>طقم سخان نبتون ذو 4 اطقم</t>
-  </si>
-  <si>
-    <t>كفر سخان فرنساوى 085/قاعده سخان فرنساوى 086</t>
-  </si>
-  <si>
-    <t>LG43LM63/UM73</t>
-  </si>
-  <si>
-    <t>LgWashing machine (Cover)</t>
-  </si>
-  <si>
-    <t>LgWashing machine (Angels)</t>
-  </si>
-  <si>
-    <t>LgWashing Mashine Base</t>
-  </si>
-  <si>
-    <t>صندوق سمك 25 ك بني سويف</t>
-  </si>
-  <si>
-    <t>طقم سخان نبتون ذو 4 اطقم - علوي</t>
-  </si>
-  <si>
-    <t>طقم سخان نبتون  ذو 4 اطقم -سفلي</t>
-  </si>
-  <si>
-    <t>كفر سخان فرنساوي</t>
-  </si>
-  <si>
-    <t>قاعدة سخان فرنساوي</t>
-  </si>
-  <si>
     <t>percent</t>
   </si>
   <si>
-    <t>FRONT 43LM63</t>
+    <t>LgWashing Mashine Base (VIVACHE)</t>
+  </si>
+  <si>
+    <t>صندوق 10 ك فلات</t>
   </si>
   <si>
     <t>LG65UP81</t>
   </si>
   <si>
+    <t>بوتجاز  90 تصدير</t>
+  </si>
+  <si>
+    <t>جزء وسط E554</t>
+  </si>
+  <si>
     <t>machine_type  machine_id  mold_name                                    scrabe_standard
-new_machine   2.0         FRONT 43LM63                                 0                    16
-              3.0         LG65UP77_TB                                  0                   459
-              4.0         LG43LM63-UM73                                0                   513
-              5.0         كفر غسالة LG/زوايا غسالة LG                  0                  1684
-              6.0         -قاعدة غسالة Lgo                             0                    84
-              7.0         صندوق سمك 25 ك                               0                   966
-              8.0         LG65UP81                                     0                   180
-                          فوم صندوق سمك 35 ك                           0                   409
-old_machine   48.0        طقم سخان نبتون ذو 4 اطقم                     0                  2406
-              49.0        كفر سخان فرنساوى 085/قاعده سخان فرنساوى 086  0                  2051
+new_machine   2.0         LgWashing Mashine Base (VIVACHE)             0.015               898
+              3.0         زوايا غسالة كليوباترا                        0.015              2406
+                          صندوق 10 ك فلات                              0.015               816
+              4.0         زانوسى العبد 305                             0.015               881
+              5.0         LG65UP77_TB                                  0.015               787
+              6.0         LG65UM73                                     0.015               439
+              7.0         LG65UP81                                     0.015                 5
+                          بوتجاز  90 تصدير                             0.015               522
+              8.0         طقم سخان نبتون ذو 3 اطقم                     0.015              4015
+old_machine   26.0        جزء وسط E554                                 0.020              1411
+              48.0        طقم سخان نبتون ذو 4 اطقم                     0.020              4032
+              49.0        كفر سخان فرنساوى 085/قاعده سخان فرنساوى 086  0.020              4124
 Name: gross_production, dtype: int64</t>
   </si>
   <si>
     <t>machine_type  machine_id  mold_name                                    scrabe_standard
-new_machine   2.0         FRONT 43LM63                                 0                  0.377953
-              3.0         LG65UP77_TB                                  0                  0.003233
-              4.0         LG43LM63-UM73                                0                  0.026265
-              5.0         كفر غسالة LG/زوايا غسالة LG                  0                  0.071321
-              6.0         -قاعدة غسالة Lgo                             0                  0.013348
-              7.0         صندوق سمك 25 ك                               0                  0.010502
-              8.0         LG65UP81                                     0                  0.000000
-                          فوم صندوق سمك 35 ك                           0                  0.005903
-old_machine   48.0        طقم سخان نبتون ذو 4 اطقم                     0                  0.031793
-              49.0        كفر سخان فرنساوى 085/قاعده سخان فرنساوى 086  0                  0.087770
+new_machine   2.0         LgWashing Mashine Base (VIVACHE)             0.015              0.048872
+              3.0         زوايا غسالة كليوباترا                        0.015              0.042213
+                          صندوق 10 ك فلات                              0.015              0.041812
+              4.0         زانوسى العبد 305                             0.015              0.064358
+              5.0         LG65UP77_TB                                  0.015              0.019504
+              6.0         LG65UM73                                     0.015              0.005574
+              7.0         LG65UP81                                     0.015              0.003021
+                          بوتجاز  90 تصدير                             0.015              0.006829
+              8.0         طقم سخان نبتون ذو 3 اطقم                     0.015              0.076096
+old_machine   26.0        جزء وسط E554                                 0.020              0.281184
+              48.0        طقم سخان نبتون ذو 4 اطقم                     0.020              0.144309
+              49.0        كفر سخان فرنساوى 085/قاعده سخان فرنساوى 086  0.020              0.205620
 Name: scrap_weight_kg, dtype: float64</t>
   </si>
   <si>
     <t>machine_type  machine_id  mold_name                                    scrabe_standard
-new_machine   2.0         FRONT 43LM63                                 0                   0.377953
-              3.0         LG65UP77_TB                                  0                   0.494612
-              4.0         LG43LM63-UM73                                0                   1.497082
-              5.0         كفر غسالة LG/زوايا غسالة LG                  0                  22.519651
-              6.0         -قاعدة غسالة Lgo                             0                   0.280311
-              7.0         صندوق سمك 25 ك                               0                   1.690782
-              8.0         LG65UP81                                     0                   0.121049
-                          فوم صندوق سمك 35 ك                           0                   0.482881
-old_machine   48.0        طقم سخان نبتون ذو 4 اطقم                     0                  12.749185
-              49.0        كفر سخان فرنساوى 085/قاعده سخان فرنساوى 086  0                  19.007985
+new_machine   2.0         LgWashing Mashine Base (VIVACHE)             0.015               3.375940
+              3.0         زوايا غسالة كليوباترا                        0.015              15.223542
+                          صندوق 10 ك فلات                              0.015               2.843206
+              4.0         زانوسى العبد 305                             0.015               2.699969
+              5.0         LG65UP77_TB                                  0.015               0.787157
+              6.0         LG65UM73                                     0.015               0.333688
+              7.0         LG65UP81                                     0.015               0.003021
+                          بوتجاز  90 تصدير                             0.015               1.336748
+              8.0         طقم سخان نبتون ذو 3 اطقم                     0.015              19.096337
+old_machine   26.0        جزء وسط E554                                 0.020              20.881607
+              48.0        طقم سخان نبتون ذو 4 اطقم                     0.020              18.875439
+              49.0        كفر سخان فرنساوى 085/قاعده سخان فرنساوى 086  0.020              37.696763
 Name: production_weight_kg, dtype: float64</t>
   </si>
   <si>
     <t>machine_type  machine_id  mold_name                                    scrabe_standard
-new_machine   2.0         FRONT 43LM63                                 0                  16.000000
-              3.0         LG65UP77_TB                                  0                   3.000000
-              4.0         LG43LM63-UM73                                0                   9.000000
-              5.0         كفر غسالة LG/زوايا غسالة LG                  0                   5.333333
-              6.0         -قاعدة غسالة Lgo                             0                   4.000000
-              7.0         صندوق سمك 25 ك                               0                   6.000000
-              8.0         LG65UP81                                     0                   0.000000
-                          فوم صندوق سمك 35 ك                           0                   5.000000
-old_machine   48.0        طقم سخان نبتون ذو 4 اطقم                     0                   6.000000
-              49.0        كفر سخان فرنساوى 085/قاعده سخان فرنساوى 086  0                   9.500000
+new_machine   2.0         LgWashing Mashine Base (VIVACHE)             0.015              13.000000
+              3.0         زوايا غسالة كليوباترا                        0.015               6.750000
+                          صندوق 10 ك فلات                              0.015              12.000000
+              4.0         زانوسى العبد 305                             0.015              21.000000
+              5.0         LG65UP77_TB                                  0.015              19.500000
+              6.0         LG65UM73                                     0.015               7.333333
+              7.0         LG65UP81                                     0.015               5.000000
+                          بوتجاز  90 تصدير                             0.015               2.666667
+              8.0         طقم سخان نبتون ذو 3 اطقم                     0.015              16.000000
+old_machine   26.0        جزء وسط E554                                 0.020              19.000000
+              48.0        طقم سخان نبتون ذو 4 اطقم                     0.020              32.000000
+              49.0        كفر سخان فرنساوى 085/قاعده سخان فرنساوى 086  0.020              22.500000
 Name: number_scrab_by_item, dtype: float64</t>
   </si>
   <si>
@@ -227,81 +220,137 @@
 Name: number_scrab_by_item, dtype: object</t>
   </si>
   <si>
+    <t>زوايا اماميه كيلوباترا</t>
+  </si>
+  <si>
+    <t>زوايا خلفيه كيلوباترا</t>
+  </si>
+  <si>
+    <t>صندوق 10 ك فلات ك 18 بدون بادج</t>
+  </si>
+  <si>
+    <t>LG 65 UM 73 sides</t>
+  </si>
+  <si>
     <t>LG 65 UP 81</t>
   </si>
   <si>
     <t>LG65UP81-side</t>
   </si>
   <si>
-    <t>machine_type  machine_id  product_name                   
-new_machine   2.0         FRONT 43LM63                         16
-              3.0         LG65UP77_TB                         459
-              4.0         LG43LM63/UM73                       513
-              5.0         LgWashing machine (Angels)          842
-                          LgWashing machine (Cover)           842
-              6.0         LgWashing Mashine Base               84
-              7.0         صندوق سمك 25 ك بني سويف             966
-              8.0         LG 65 UP 81                         180
-                          LG65UP81-side                         0
-                          فوم صندوق سمك 35 ك                  409
-old_machine   48.0        طقم سخان نبتون  ذو 4 اطقم -سفلي    1203
-                          طقم سخان نبتون ذو 4 اطقم - علوي    1203
-              49.0        قاعدة سخان فرنساوي                 1070
-                          كفر سخان فرنساوي                    981
+    <t>زاوية بوتجاز اماميه 90 تصدير</t>
+  </si>
+  <si>
+    <t>قاعدة بوتجاز 90 تصدير</t>
+  </si>
+  <si>
+    <t>طقم سخان نبتون  ذو 3 اطقم -سفلي</t>
+  </si>
+  <si>
+    <t>طقم سخان نبتون ذو 3 اطقم - علوي</t>
+  </si>
+  <si>
+    <t>طقم سخان نبتون  ذو 4 اطقم -سفلي</t>
+  </si>
+  <si>
+    <t>طقم سخان نبتون ذو 4 اطقم - علوي</t>
+  </si>
+  <si>
+    <t>قاعدة سخان فرنساوي</t>
+  </si>
+  <si>
+    <t>كفر سخان فرنساوي</t>
+  </si>
+  <si>
+    <t>machine_type  machine_id  product_name                    
+new_machine   2.0         LgWashing Mashine Base (VIVACHE)     898
+              3.0         زوايا اماميه كيلوباترا              1202
+                          زوايا خلفيه كيلوباترا               1204
+                          صندوق 10 ك فلات ك 18 بدون بادج       816
+              4.0         زانوسى العبد 305                     881
+              5.0         LG65UP77_TB                          787
+              6.0         LG 65 UM 73 sides                      0
+                          LG 65 UM 73 top&amp;bottom               439
+              7.0         LG 65 UP 81                            5
+                          LG65UP81-side                          0
+                          زاوية بوتجاز اماميه 90 تصدير           0
+                          قاعدة بوتجاز 90 تصدير                522
+              8.0         طقم سخان نبتون  ذو 3 اطقم -سفلي     2008
+                          طقم سخان نبتون ذو 3 اطقم - علوي     2007
+old_machine   26.0        جزء وسط E554                        1411
+              48.0        طقم سخان نبتون  ذو 4 اطقم -سفلي     2013
+                          طقم سخان نبتون ذو 4 اطقم - علوي     2019
+              49.0        قاعدة سخان فرنساوي                  2066
+                          كفر سخان فرنساوي                    2058
 Name: gross_production, dtype: int64</t>
   </si>
   <si>
-    <t>machine_type  machine_id  product_name                   
-new_machine   2.0         FRONT 43LM63                       0.377953
-              3.0         LG65UP77_TB                        0.003233
-              4.0         LG43LM63/UM73                      0.026265
-              5.0         LgWashing machine (Angels)         0.046243
-                          LgWashing machine (Cover)          0.025078
-              6.0         LgWashing Mashine Base             0.013348
-              7.0         صندوق سمك 25 ك بني سويف            0.010502
-              8.0         LG 65 UP 81                        0.000000
-                          LG65UP81-side                      0.000000
-                          فوم صندوق سمك 35 ك                 0.005903
-old_machine   48.0        طقم سخان نبتون  ذو 4 اطقم -سفلي    0.018750
-                          طقم سخان نبتون ذو 4 اطقم - علوي    0.013043
-              49.0        قاعدة سخان فرنساوي                 0.037618
-                          كفر سخان فرنساوي                   0.050152
+    <t>machine_type  machine_id  product_name                    
+new_machine   2.0         LgWashing Mashine Base (VIVACHE)    0.048872
+              3.0         زوايا اماميه كيلوباترا              0.018498
+                          زوايا خلفيه كيلوباترا               0.023715
+                          صندوق 10 ك فلات ك 18 بدون بادج      0.041812
+              4.0         زانوسى العبد 305                    0.064358
+              5.0         LG65UP77_TB                         0.019504
+              6.0         LG 65 UM 73 sides                   0.000000
+                          LG 65 UM 73 top&amp;bottom              0.005574
+              7.0         LG 65 UP 81                         0.003021
+                          LG65UP81-side                       0.000000
+                          زاوية بوتجاز اماميه 90 تصدير        0.000000
+                          قاعدة بوتجاز 90 تصدير               0.006829
+              8.0         طقم سخان نبتون  ذو 3 اطقم -سفلي     0.046189
+                          طقم سخان نبتون ذو 3 اطقم - علوي     0.029907
+old_machine   26.0        جزء وسط E554                        0.281184
+              48.0        طقم سخان نبتون  ذو 4 اطقم -سفلي     0.072880
+                          طقم سخان نبتون ذو 4 اطقم - علوي     0.071429
+              49.0        قاعدة سخان فرنساوي                  0.109290
+                          كفر سخان فرنساوي                    0.096330
 Name: scrap_weight_kg, dtype: float64</t>
   </si>
   <si>
-    <t>machine_type  machine_id  product_name                   
-new_machine   2.0         FRONT 43LM63                        0.377953
-              3.0         LG65UP77_TB                         0.494612
-              4.0         LG43LM63/UM73                       1.497082
-              5.0         LgWashing machine (Angels)         14.601156
-                          LgWashing machine (Cover)           7.918495
-              6.0         LgWashing Mashine Base              0.280311
-              7.0         صندوق سمك 25 ك بني سويف             1.690782
-              8.0         LG 65 UP 81                         0.121049
-                          LG65UP81-side                       0.000000
-                          فوم صندوق سمك 35 ك                  0.482881
-old_machine   48.0        طقم سخان نبتون  ذو 4 اطقم -سفلي     7.518750
-                          طقم سخان نبتون ذو 4 اطقم - علوي     5.230435
-              49.0        قاعدة سخان فرنساوي                 10.062696
-                          كفر سخان فرنساوي                    8.945289
+    <t>machine_type  machine_id  product_name                    
+new_machine   2.0         LgWashing Mashine Base (VIVACHE)     3.375940
+              3.0         زوايا اماميه كيلوباترا               8.085202
+                          زوايا خلفيه كيلوباترا                7.138340
+                          صندوق 10 ك فلات ك 18 بدون بادج       2.843206
+              4.0         زانوسى العبد 305                     2.699969
+              5.0         LG65UP77_TB                          0.787157
+              6.0         LG 65 UM 73 sides                    0.000000
+                          LG 65 UM 73 top&amp;bottom               0.333688
+              7.0         LG 65 UP 81                          0.003021
+                          LG65UP81-side                        0.000000
+                          زاوية بوتجاز اماميه 90 تصدير         0.000000
+                          قاعدة بوتجاز 90 تصدير                1.336748
+              8.0         طقم سخان نبتون  ذو 3 اطقم -سفلي     11.593533
+                          طقم سخان نبتون ذو 3 اطقم - علوي      7.502804
+old_machine   26.0        جزء وسط E554                        20.881607
+              48.0        طقم سخان نبتون  ذو 4 اطقم -سفلي     11.285214
+                          طقم سخان نبتون ذو 4 اطقم - علوي      7.590226
+              49.0        قاعدة سخان فرنساوي                  18.816029
+                          كفر سخان فرنساوي                    18.880734
 Name: production_weight_kg, dtype: float64</t>
   </si>
   <si>
-    <t>machine_type  machine_id  product_name                   
-new_machine   2.0         FRONT 43LM63                       16.000000
-              3.0         LG65UP77_TB                         3.000000
-              4.0         LG43LM63/UM73                       9.000000
-              5.0         LgWashing machine (Angels)          2.666667
-                          LgWashing machine (Cover)           2.666667
-              6.0         LgWashing Mashine Base              4.000000
-              7.0         صندوق سمك 25 ك بني سويف             6.000000
-              8.0         LG 65 UP 81                         0.000000
-                          LG65UP81-side                       0.000000
-                          فوم صندوق سمك 35 ك                  5.000000
-old_machine   48.0        طقم سخان نبتون  ذو 4 اطقم -سفلي     3.000000
-                          طقم سخان نبتون ذو 4 اطقم - علوي     3.000000
-              49.0        قاعدة سخان فرنساوي                  4.000000
-                          كفر سخان فرنساوي                    5.500000
+    <t>machine_type  machine_id  product_name                    
+new_machine   2.0         LgWashing Mashine Base (VIVACHE)    13.000000
+              3.0         زوايا اماميه كيلوباترا               2.750000
+                          زوايا خلفيه كيلوباترا                4.000000
+                          صندوق 10 ك فلات ك 18 بدون بادج      12.000000
+              4.0         زانوسى العبد 305                    21.000000
+              5.0         LG65UP77_TB                         19.500000
+              6.0         LG 65 UM 73 sides                    0.000000
+                          LG 65 UM 73 top&amp;bottom               7.333333
+              7.0         LG 65 UP 81                          5.000000
+                          LG65UP81-side                        0.000000
+                          زاوية بوتجاز اماميه 90 تصدير         0.000000
+                          قاعدة بوتجاز 90 تصدير                2.666667
+              8.0         طقم سخان نبتون  ذو 3 اطقم -سفلي      8.000000
+                          طقم سخان نبتون ذو 3 اطقم - علوي      8.000000
+old_machine   26.0        جزء وسط E554                        19.000000
+              48.0        طقم سخان نبتون  ذو 4 اطقم -سفلي     13.000000
+                          طقم سخان نبتون ذو 4 اطقم - علوي     19.000000
+              49.0        قاعدة سخان فرنساوي                  12.000000
+                          كفر سخان فرنساوي                    10.500000
 Name: number_scrab_by_item, dtype: float64</t>
   </si>
   <si>
@@ -415,9 +464,6 @@
     <t>average_wet_weight</t>
   </si>
   <si>
-    <t>c_t_actually</t>
-  </si>
-  <si>
     <t>shift1_production_cards</t>
   </si>
   <si>
@@ -571,340 +617,805 @@
     <t>wet_average_percent</t>
   </si>
   <si>
-    <t>FRONT 43LM55</t>
-  </si>
-  <si>
-    <t>FMLGEI43LM63FR</t>
+    <t>LgWashing Mashine Base</t>
+  </si>
+  <si>
+    <t>FMLGEI10000000</t>
+  </si>
+  <si>
+    <t>FMDAII2FCP0000</t>
+  </si>
+  <si>
+    <t>FMDAII2RCP0000</t>
+  </si>
+  <si>
+    <t>FM000B10180000</t>
+  </si>
+  <si>
+    <t>FMABDI30500000</t>
   </si>
   <si>
     <t>FMLGEI065UP770</t>
   </si>
   <si>
-    <t>FMLGEI43LM6373</t>
-  </si>
-  <si>
-    <t>FMLGEI20000000</t>
-  </si>
-  <si>
-    <t>FMLGEI40000000</t>
+    <t>FMLGEI65UM7301</t>
+  </si>
+  <si>
+    <t>FMLGEI65UM7302</t>
+  </si>
+  <si>
+    <t>FMDACI49000001</t>
+  </si>
+  <si>
+    <t>FMDACI49000002</t>
+  </si>
+  <si>
+    <t>FMLGEI065UP810</t>
+  </si>
+  <si>
+    <t>FMLGEI365UP810</t>
+  </si>
+  <si>
+    <t>FMEWFI7A176101</t>
+  </si>
+  <si>
+    <t>FMEWFI1A176201</t>
+  </si>
+  <si>
+    <t>FMENCI00000000</t>
+  </si>
+  <si>
+    <t>FMENCI20000000</t>
+  </si>
+  <si>
+    <t>FMENCI30000000</t>
   </si>
   <si>
     <t>FMLGEI1000000</t>
   </si>
   <si>
-    <t>FM000B25000000</t>
-  </si>
-  <si>
-    <t>FMBOXI35000000</t>
-  </si>
-  <si>
-    <t>FMLGEI065UP810</t>
-  </si>
-  <si>
-    <t>FMLGEI365UP810</t>
-  </si>
-  <si>
-    <t>FMEWFI1A176201</t>
-  </si>
-  <si>
-    <t>FMEWFI7A176101</t>
-  </si>
-  <si>
-    <t>FMENCI20000000</t>
-  </si>
-  <si>
-    <t>FMENCI30000000</t>
-  </si>
-  <si>
-    <t>FMLGEI43LM55FR</t>
+    <t>1700*1400</t>
   </si>
   <si>
     <t>1400*1700</t>
   </si>
   <si>
-    <t>1700*1400</t>
+    <t>1100*1200</t>
   </si>
   <si>
     <t>1600*1800</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>332</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>1509</t>
+  </si>
+  <si>
+    <t>1931</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>1591</t>
+  </si>
+  <si>
+    <t>1881</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1877</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>1489</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>1430</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>984</t>
+  </si>
+  <si>
+    <t>1290</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1291</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>993</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1322</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>989</t>
+  </si>
+  <si>
+    <t>1334</t>
+  </si>
+  <si>
+    <t>198</t>
   </si>
   <si>
     <t>71</t>
   </si>
   <si>
-    <t>1545</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>352</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>2080</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>130</t>
+    <t>174</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>1679</t>
+  </si>
+  <si>
+    <t>1752</t>
+  </si>
+  <si>
+    <t>2365</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>1644</t>
+  </si>
+  <si>
+    <t>1725</t>
+  </si>
+  <si>
+    <t>2139</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>1647</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>1637</t>
+  </si>
+  <si>
+    <t>1751</t>
+  </si>
+  <si>
+    <t>2128</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>1628</t>
+  </si>
+  <si>
+    <t>1727</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>1044</t>
+  </si>
+  <si>
+    <t>1368</t>
+  </si>
+  <si>
+    <t>1719</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>280</t>
   </si>
   <si>
     <t>69</t>
   </si>
   <si>
-    <t>1520</t>
-  </si>
-  <si>
-    <t>448</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>736</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>137</t>
+    <t>269</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>1337</t>
+  </si>
+  <si>
+    <t>1685</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>973</t>
+  </si>
+  <si>
+    <t>1307</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>976</t>
+  </si>
+  <si>
+    <t>1314</t>
+  </si>
+  <si>
+    <t>1630</t>
   </si>
   <si>
     <t>73</t>
   </si>
   <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>741</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>930</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>1487</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>926</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>589</t>
-  </si>
-  <si>
-    <t>847</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>113</t>
+    <t>273</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>302</t>
   </si>
   <si>
     <t>110</t>
   </si>
   <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>840</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>960</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>180</t>
+    <t>101</t>
   </si>
   <si>
     <t>1200</t>
   </si>
   <si>
-    <t>976</t>
-  </si>
-  <si>
-    <t>1066</t>
+    <t>252</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t>1136</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>885</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
+    <t>962</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>14</t>
   </si>
   <si>
     <t>LG</t>
   </si>
   <si>
+    <t>Media</t>
+  </si>
+  <si>
     <t>عملاء متنوعون</t>
   </si>
   <si>
     <t>الكترولوكس</t>
   </si>
   <si>
+    <t>متنوع</t>
+  </si>
+  <si>
     <t>اطلانتيك</t>
   </si>
   <si>
+    <t>HAE</t>
+  </si>
+  <si>
+    <t>ميديا</t>
+  </si>
+  <si>
+    <t>القاهرة للصناعات المغذية غسالات</t>
+  </si>
+  <si>
     <t>HE</t>
   </si>
   <si>
-    <t>HAE</t>
+    <t>القاهرة للصناعات المغذية بوتاجازات</t>
   </si>
   <si>
     <t>القاهرة للصناعات المغذية سخانات</t>
   </si>
   <si>
-    <t>MFZ66151901</t>
+    <t>AGG76599802</t>
   </si>
   <si>
     <t>MFZ67207701</t>
   </si>
   <si>
-    <t>mfz66236501</t>
-  </si>
-  <si>
-    <t>3920EZ2058A</t>
-  </si>
-  <si>
-    <t>3920FZ3114C</t>
+    <t>MFZ66236701</t>
+  </si>
+  <si>
+    <t>MFZ66236702</t>
+  </si>
+  <si>
+    <t>A07465002</t>
+  </si>
+  <si>
+    <t>A07467901</t>
+  </si>
+  <si>
+    <t>MFZ67207601</t>
+  </si>
+  <si>
+    <t>MFZ67207602</t>
   </si>
   <si>
     <t>AGG76599801</t>
   </si>
   <si>
-    <t>MFZ67207601</t>
-  </si>
-  <si>
-    <t>MFZ67207602</t>
-  </si>
-  <si>
-    <t>MFZ65262201</t>
+    <t>mmf</t>
   </si>
   <si>
     <t>mma</t>
   </si>
   <si>
-    <t>mmf</t>
+    <t xml:space="preserve">mma </t>
+  </si>
+  <si>
+    <t>قاعدة غسالة Lg</t>
   </si>
 </sst>
 </file>
@@ -1266,38 +1777,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>174</v>
+      </c>
+      <c r="D2">
+        <v>213</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>168.6666666666667</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1307,53 +1836,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>277</v>
+      </c>
+      <c r="D2">
+        <v>52</v>
+      </c>
+      <c r="E2">
+        <v>23.54865085854456</v>
+      </c>
+      <c r="F2">
+        <v>305.75</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="D3">
+        <v>120</v>
+      </c>
+      <c r="E3">
+        <v>97.07865168539325</v>
+      </c>
+      <c r="F3">
+        <v>111.25</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <v>96</v>
+      </c>
+      <c r="E4">
+        <v>84.83063328424153</v>
+      </c>
+      <c r="F4">
+        <v>169.75</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>108</v>
+      </c>
+      <c r="E5">
+        <v>98.18181818181819</v>
+      </c>
+      <c r="F5">
+        <v>110</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1363,7 +1979,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1371,671 +1987,223 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1">
-        <v>151</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>459</v>
+        <v>881</v>
       </c>
       <c r="F2">
-        <v>0.006535947712418301</v>
+        <v>0.02383654937570942</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H2">
-        <v>0.003232758620689655</v>
+        <v>0.06435795280416794</v>
       </c>
       <c r="I2">
-        <v>0.4946120689655172</v>
+        <v>2.699969353355808</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="L2">
-        <v>928</v>
+        <v>326.3</v>
       </c>
       <c r="M2">
-        <v>48.33333333333333</v>
+        <v>103.25</v>
       </c>
       <c r="N2">
-        <v>4311</v>
+        <v>10769</v>
       </c>
       <c r="O2">
-        <v>8768</v>
+        <v>20446</v>
       </c>
       <c r="P2">
-        <v>1.121162916570015</v>
+        <v>0.9587705450831091</v>
       </c>
       <c r="Q2">
-        <v>0.7280261557177615</v>
+        <v>0.9133815905311553</v>
       </c>
       <c r="R2">
-        <v>63.83333333333333</v>
+        <v>186.75</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
-        <v>152</v>
+        <v>342</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>19.5</v>
       </c>
       <c r="E3">
-        <v>513</v>
+        <v>787</v>
       </c>
       <c r="F3">
-        <v>0.01754385964912281</v>
+        <v>0.02477763659466328</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H3">
-        <v>0.02626459143968871</v>
+        <v>0.01950390078015603</v>
       </c>
       <c r="I3">
-        <v>1.497081712062257</v>
+        <v>0.7871574314862972</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="L3">
-        <v>342.6666666666667</v>
+        <v>999.8</v>
       </c>
       <c r="M3">
-        <v>48.33333333333333</v>
+        <v>103.25</v>
       </c>
       <c r="N3">
-        <v>4311</v>
+        <v>10769</v>
       </c>
       <c r="O3">
-        <v>8768</v>
+        <v>20446</v>
       </c>
       <c r="P3">
-        <v>1.121162916570015</v>
+        <v>0.9587705450831091</v>
       </c>
       <c r="Q3">
-        <v>0.7280261557177615</v>
+        <v>0.9133815905311553</v>
       </c>
       <c r="R3">
-        <v>63.83333333333333</v>
+        <v>186.75</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
-        <v>153</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>2.666666666666667</v>
+        <v>7.333333333333334</v>
       </c>
       <c r="E4">
-        <v>842</v>
+        <v>439</v>
       </c>
       <c r="F4">
-        <v>0.003167062549485352</v>
+        <v>0.01670463173880031</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>0.02507836990595611</v>
+        <v>0.005574136008918619</v>
       </c>
       <c r="I4">
-        <v>7.918495297805643</v>
+        <v>0.3336880510793555</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="L4">
-        <v>106.3333333333333</v>
+        <v>1315.6</v>
       </c>
       <c r="M4">
-        <v>48.33333333333333</v>
+        <v>103.25</v>
       </c>
       <c r="N4">
-        <v>4311</v>
+        <v>10769</v>
       </c>
       <c r="O4">
-        <v>8768</v>
+        <v>20446</v>
       </c>
       <c r="P4">
-        <v>1.121162916570015</v>
+        <v>0.9587705450831091</v>
       </c>
       <c r="Q4">
-        <v>0.7280261557177615</v>
+        <v>0.9133815905311553</v>
       </c>
       <c r="R4">
-        <v>63.83333333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="1">
-        <v>154</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="E5">
-        <v>842</v>
-      </c>
-      <c r="F5">
-        <v>0.003167062549485352</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>0.04624277456647399</v>
-      </c>
-      <c r="I5">
-        <v>14.60115606936416</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>57.66666666666666</v>
-      </c>
-      <c r="M5">
-        <v>48.33333333333333</v>
-      </c>
-      <c r="N5">
-        <v>4311</v>
-      </c>
-      <c r="O5">
-        <v>8768</v>
-      </c>
-      <c r="P5">
-        <v>1.121162916570015</v>
-      </c>
-      <c r="Q5">
-        <v>0.7280261557177615</v>
-      </c>
-      <c r="R5">
-        <v>63.83333333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="1">
-        <v>155</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>84</v>
-      </c>
-      <c r="F6">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6">
-        <v>0.01334816462736374</v>
-      </c>
-      <c r="I6">
-        <v>0.2803114571746385</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>299.6666666666667</v>
-      </c>
-      <c r="M6">
-        <v>48.33333333333333</v>
-      </c>
-      <c r="N6">
-        <v>4311</v>
-      </c>
-      <c r="O6">
-        <v>8768</v>
-      </c>
-      <c r="P6">
-        <v>1.121162916570015</v>
-      </c>
-      <c r="Q6">
-        <v>0.7280261557177615</v>
-      </c>
-      <c r="R6">
-        <v>63.83333333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="1">
-        <v>156</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>966</v>
-      </c>
-      <c r="F7">
-        <v>0.006211180124223602</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7">
-        <v>0.01050175029171528</v>
-      </c>
-      <c r="I7">
-        <v>1.690781796966161</v>
-      </c>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>571.3333333333334</v>
-      </c>
-      <c r="M7">
-        <v>48.33333333333333</v>
-      </c>
-      <c r="N7">
-        <v>4311</v>
-      </c>
-      <c r="O7">
-        <v>8768</v>
-      </c>
-      <c r="P7">
-        <v>1.121162916570015</v>
-      </c>
-      <c r="Q7">
-        <v>0.7280261557177615</v>
-      </c>
-      <c r="R7">
-        <v>63.83333333333333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="1">
-        <v>157</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>409</v>
-      </c>
-      <c r="F8">
-        <v>0.01222493887530562</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8">
-        <v>0.005903187721369539</v>
-      </c>
-      <c r="I8">
-        <v>0.4828807556080283</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>847</v>
-      </c>
-      <c r="M8">
-        <v>48.33333333333333</v>
-      </c>
-      <c r="N8">
-        <v>4311</v>
-      </c>
-      <c r="O8">
-        <v>8768</v>
-      </c>
-      <c r="P8">
-        <v>1.121162916570015</v>
-      </c>
-      <c r="Q8">
-        <v>0.7280261557177615</v>
-      </c>
-      <c r="R8">
-        <v>63.83333333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="1">
-        <v>160</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <v>48</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>1203</v>
-      </c>
-      <c r="F9">
-        <v>0.002493765586034913</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9">
-        <v>0.01304347826086956</v>
-      </c>
-      <c r="I9">
-        <v>5.230434782608696</v>
-      </c>
-      <c r="J9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>230</v>
-      </c>
-      <c r="M9">
-        <v>48.33333333333333</v>
-      </c>
-      <c r="N9">
-        <v>4311</v>
-      </c>
-      <c r="O9">
-        <v>8768</v>
-      </c>
-      <c r="P9">
-        <v>1.121162916570015</v>
-      </c>
-      <c r="Q9">
-        <v>0.7280261557177615</v>
-      </c>
-      <c r="R9">
-        <v>63.83333333333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="1">
-        <v>161</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10">
-        <v>48</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>1203</v>
-      </c>
-      <c r="F10">
-        <v>0.002493765586034913</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10">
-        <v>0.01875</v>
-      </c>
-      <c r="I10">
-        <v>7.51875</v>
-      </c>
-      <c r="J10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>160</v>
-      </c>
-      <c r="M10">
-        <v>48.33333333333333</v>
-      </c>
-      <c r="N10">
-        <v>4311</v>
-      </c>
-      <c r="O10">
-        <v>8768</v>
-      </c>
-      <c r="P10">
-        <v>1.121162916570015</v>
-      </c>
-      <c r="Q10">
-        <v>0.7280261557177615</v>
-      </c>
-      <c r="R10">
-        <v>63.83333333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="1">
-        <v>162</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11">
-        <v>49</v>
-      </c>
-      <c r="D11">
-        <v>5.5</v>
-      </c>
-      <c r="E11">
-        <v>981</v>
-      </c>
-      <c r="F11">
-        <v>0.005606523955147808</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11">
-        <v>0.05015197568389058</v>
-      </c>
-      <c r="I11">
-        <v>8.945288753799392</v>
-      </c>
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>109.6666666666667</v>
-      </c>
-      <c r="M11">
-        <v>48.33333333333333</v>
-      </c>
-      <c r="N11">
-        <v>4311</v>
-      </c>
-      <c r="O11">
-        <v>8768</v>
-      </c>
-      <c r="P11">
-        <v>1.121162916570015</v>
-      </c>
-      <c r="Q11">
-        <v>0.7280261557177615</v>
-      </c>
-      <c r="R11">
-        <v>63.83333333333333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="1">
-        <v>163</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12">
-        <v>49</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>1070</v>
-      </c>
-      <c r="F12">
-        <v>0.003738317757009346</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12">
-        <v>0.03761755485893417</v>
-      </c>
-      <c r="I12">
-        <v>10.06269592476489</v>
-      </c>
-      <c r="J12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>106.3333333333333</v>
-      </c>
-      <c r="M12">
-        <v>48.33333333333333</v>
-      </c>
-      <c r="N12">
-        <v>4311</v>
-      </c>
-      <c r="O12">
-        <v>8768</v>
-      </c>
-      <c r="P12">
-        <v>1.121162916570015</v>
-      </c>
-      <c r="Q12">
-        <v>0.7280261557177615</v>
-      </c>
-      <c r="R12">
-        <v>63.83333333333333</v>
+        <v>186.75</v>
       </c>
     </row>
   </sheetData>
@@ -2045,7 +2213,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2053,244 +2221,278 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="E5">
-        <v>5.333333333333333</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>7.333333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E11">
-        <v>9.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1">
         <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E12">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1">
         <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E13">
+        <v>22.5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2300,7 +2502,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2308,101 +2510,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>5.333333333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>49</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9">
-        <v>9.5</v>
+        <v>7.333333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -2412,7 +2559,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2420,262 +2567,332 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4">
         <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>2.666666666666667</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>2.666666666666667</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>7.333333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>5.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" t="s">
-        <v>55</v>
+        <v>36</v>
+      </c>
+      <c r="B16" s="1">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" t="s">
-        <v>56</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="1">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="B18" s="1">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" t="s">
-        <v>58</v>
+        <v>36</v>
+      </c>
+      <c r="B19" s="1">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" t="s">
-        <v>59</v>
+        <v>36</v>
+      </c>
+      <c r="B20" s="1">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2685,7 +2902,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CY20"/>
+  <dimension ref="A1:CY22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2693,40 +2910,40 @@
   <sheetData>
     <row r="1" spans="1:103">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>0</v>
@@ -2735,271 +2952,271 @@
         <v>1</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BV1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="BW1" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BX1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="CO1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BY1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="CP1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:103">
@@ -3010,127 +3227,190 @@
         <v>7</v>
       </c>
       <c r="C2" s="2">
-        <v>44748</v>
+        <v>44761</v>
       </c>
       <c r="D2">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E2">
-        <v>449</v>
+        <v>674</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="J2" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c r="M2">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="N2">
-        <v>50</v>
+        <v>274</v>
       </c>
       <c r="O2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="Q2" t="s">
-        <v>190</v>
+        <v>206</v>
+      </c>
+      <c r="R2" t="s">
+        <v>219</v>
+      </c>
+      <c r="S2" t="s">
+        <v>228</v>
       </c>
       <c r="T2" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="U2" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="V2" t="s">
-        <v>218</v>
+        <v>255</v>
+      </c>
+      <c r="W2" t="s">
+        <v>267</v>
+      </c>
+      <c r="X2" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>335</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>284</v>
       </c>
       <c r="AM2">
-        <v>71</v>
+        <v>352.6</v>
       </c>
       <c r="AN2">
-        <v>42.33333333333334</v>
+        <v>266</v>
       </c>
       <c r="AO2">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="AP2">
-        <v>96</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>237</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>240</v>
+        <v>120</v>
+      </c>
+      <c r="AQ2">
+        <v>74.22680412371135</v>
+      </c>
+      <c r="AR2">
+        <v>97</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>387</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>383</v>
       </c>
       <c r="BQ2" t="s">
-        <v>241</v>
+        <v>395</v>
       </c>
       <c r="BR2" t="s">
-        <v>245</v>
+        <v>401</v>
       </c>
       <c r="BS2" t="s">
-        <v>248</v>
+        <v>407</v>
       </c>
       <c r="BT2" t="s">
-        <v>257</v>
+        <v>416</v>
       </c>
       <c r="BU2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BV2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="BW2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="BX2">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="BY2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CC2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CD2">
-        <v>0</v>
+        <v>898</v>
       </c>
       <c r="CE2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="CF2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CG2">
         <v>6</v>
@@ -3154,34 +3434,37 @@
         <v>0</v>
       </c>
       <c r="CN2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="CO2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="CP2">
-        <v>16</v>
+        <v>898</v>
       </c>
       <c r="CQ2">
-        <v>1</v>
+        <v>0.01447661469933185</v>
       </c>
       <c r="CR2">
-        <v>0.3478260869565217</v>
+        <v>0.05078125</v>
       </c>
       <c r="CS2">
-        <v>0.3478260869565217</v>
+        <v>3.5078125</v>
       </c>
       <c r="CT2">
-        <v>0.3779527559055118</v>
+        <v>0.04887218045112782</v>
       </c>
       <c r="CU2">
-        <v>0.3779527559055118</v>
+        <v>3.37593984962406</v>
+      </c>
+      <c r="CV2">
+        <v>0.1751388888888889</v>
       </c>
       <c r="CW2">
-        <v>8878.545454545454</v>
+        <v>575536.3636363636</v>
       </c>
       <c r="CX2">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="CY2">
         <v>-1</v>
@@ -3195,128 +3478,128 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>44748</v>
+        <v>44761</v>
       </c>
       <c r="D3">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="E3">
-        <v>669</v>
+        <v>690</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="J3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>170</v>
+      </c>
+      <c r="M3">
+        <v>153</v>
+      </c>
+      <c r="N3">
+        <v>187</v>
+      </c>
+      <c r="O3" t="s">
+        <v>181</v>
+      </c>
+      <c r="P3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>207</v>
+      </c>
+      <c r="T3" t="s">
+        <v>217</v>
+      </c>
+      <c r="U3" t="s">
+        <v>250</v>
+      </c>
+      <c r="V3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM3">
+        <v>179.6666666666667</v>
+      </c>
+      <c r="AN3">
+        <v>148.6666666666667</v>
+      </c>
+      <c r="AO3">
+        <v>120</v>
+      </c>
+      <c r="AP3">
+        <v>120</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>375</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>385</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>396</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>402</v>
+      </c>
+      <c r="BU3">
+        <v>29</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BX3">
+        <v>0.015</v>
+      </c>
+      <c r="BY3">
+        <v>11</v>
+      </c>
+      <c r="BZ3">
+        <v>2.75</v>
+      </c>
+      <c r="CA3">
+        <v>1202</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
         <v>2</v>
       </c>
-      <c r="L3">
-        <v>954</v>
-      </c>
-      <c r="M3">
-        <v>897</v>
-      </c>
-      <c r="N3">
-        <v>1021</v>
-      </c>
-      <c r="O3" t="s">
-        <v>171</v>
-      </c>
-      <c r="P3" t="s">
-        <v>182</v>
-      </c>
-      <c r="T3" t="s">
-        <v>201</v>
-      </c>
-      <c r="U3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM3">
-        <v>1532.5</v>
-      </c>
-      <c r="AN3">
-        <v>928</v>
-      </c>
-      <c r="AO3">
-        <v>40</v>
-      </c>
-      <c r="AP3">
-        <v>180</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>168</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>241</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>245</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>249</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>257</v>
-      </c>
-      <c r="BU3">
-        <v>27</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>28</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>26</v>
-      </c>
-      <c r="BX3">
-        <v>0</v>
-      </c>
-      <c r="BY3">
-        <v>6</v>
-      </c>
-      <c r="BZ3">
-        <v>3</v>
-      </c>
-      <c r="CA3">
-        <v>459</v>
-      </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
-      <c r="CC3">
-        <v>0</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>1</v>
-      </c>
-      <c r="CF3">
-        <v>1</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
-      </c>
       <c r="CH3">
         <v>0</v>
       </c>
@@ -3336,34 +3619,34 @@
         <v>0</v>
       </c>
       <c r="CN3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="CO3">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="CP3">
-        <v>459</v>
+        <v>1202</v>
       </c>
       <c r="CQ3">
-        <v>0.006535947712418301</v>
+        <v>0.002287853577371048</v>
       </c>
       <c r="CR3">
-        <v>0.003144654088050315</v>
+        <v>0.0161764705882353</v>
       </c>
       <c r="CS3">
-        <v>0.4811320754716981</v>
+        <v>7.070588235294117</v>
       </c>
       <c r="CT3">
-        <v>0.003232758620689655</v>
+        <v>0.01849775784753363</v>
       </c>
       <c r="CU3">
-        <v>0.4946120689655172</v>
+        <v>8.085201793721973</v>
       </c>
       <c r="CW3">
-        <v>90965.45454545454</v>
+        <v>1540745.454545455</v>
       </c>
       <c r="CX3">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="CY3">
         <v>-1</v>
@@ -3377,115 +3660,118 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>44748</v>
+        <v>44761</v>
       </c>
       <c r="D4">
-        <v>376</v>
+        <v>125</v>
       </c>
       <c r="E4">
-        <v>438</v>
+        <v>691</v>
       </c>
       <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4" t="s">
-        <v>166</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
       <c r="L4">
-        <v>335</v>
+        <v>194</v>
       </c>
       <c r="M4">
-        <v>315</v>
+        <v>174</v>
       </c>
       <c r="N4">
-        <v>358</v>
+        <v>213</v>
       </c>
       <c r="O4" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="P4" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="Q4" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="T4" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="U4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="V4" t="s">
-        <v>219</v>
+        <v>260</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>258</v>
       </c>
       <c r="AM4">
-        <v>455</v>
+        <v>198.6666666666667</v>
       </c>
       <c r="AN4">
-        <v>342.6666666666667</v>
+        <v>168.6666666666667</v>
       </c>
       <c r="AO4">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AP4">
-        <v>144</v>
+        <v>120</v>
+      </c>
+      <c r="AQ4">
+        <v>132.1100917431193</v>
+      </c>
+      <c r="AR4">
+        <v>109</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>375</v>
       </c>
       <c r="AV4" t="s">
-        <v>237</v>
+        <v>382</v>
       </c>
       <c r="AW4" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AX4" t="s">
-        <v>237</v>
+        <v>384</v>
       </c>
       <c r="BQ4" t="s">
-        <v>241</v>
+        <v>396</v>
       </c>
       <c r="BR4" t="s">
-        <v>245</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>250</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>257</v>
+        <v>402</v>
       </c>
       <c r="BU4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BV4" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="BW4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="BX4">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="BY4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BZ4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CA4">
-        <v>513</v>
+        <v>1204</v>
       </c>
       <c r="CB4">
         <v>0</v>
@@ -3497,61 +3783,64 @@
         <v>0</v>
       </c>
       <c r="CE4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CF4">
         <v>1</v>
       </c>
       <c r="CG4">
+        <v>1</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>16</v>
+      </c>
+      <c r="CO4">
         <v>4</v>
       </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CI4">
-        <v>0</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>18</v>
-      </c>
-      <c r="CO4">
-        <v>9</v>
-      </c>
       <c r="CP4">
-        <v>513</v>
+        <v>1204</v>
       </c>
       <c r="CQ4">
-        <v>0.01754385964912281</v>
+        <v>0.003322259136212625</v>
       </c>
       <c r="CR4">
-        <v>0.02686567164179104</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="CS4">
-        <v>1.531343283582089</v>
+        <v>6.206185567010309</v>
       </c>
       <c r="CT4">
-        <v>0.02626459143968871</v>
+        <v>0.02371541501976285</v>
       </c>
       <c r="CU4">
-        <v>1.497081712062257</v>
+        <v>7.138339920948617</v>
+      </c>
+      <c r="CV4">
+        <v>0.03027777777777778</v>
       </c>
       <c r="CW4">
-        <v>190626.1363636364</v>
+        <v>1543309.090909091</v>
       </c>
       <c r="CX4">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="CY4">
         <v>-1</v>
@@ -3565,130 +3854,154 @@
         <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>44748</v>
+        <v>44761</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>281</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="J5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>285</v>
       </c>
       <c r="M5">
-        <v>95</v>
+        <v>265</v>
       </c>
       <c r="N5">
-        <v>104</v>
-      </c>
-      <c r="O5" t="s">
-        <v>173</v>
-      </c>
-      <c r="P5" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>192</v>
-      </c>
-      <c r="T5" t="s">
-        <v>203</v>
-      </c>
-      <c r="U5" t="s">
-        <v>213</v>
-      </c>
-      <c r="V5" t="s">
-        <v>217</v>
+        <v>304</v>
+      </c>
+      <c r="S5" t="s">
+        <v>229</v>
+      </c>
+      <c r="X5" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>322</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>360</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>374</v>
       </c>
       <c r="AM5">
-        <v>132</v>
+        <v>377</v>
       </c>
       <c r="AN5">
-        <v>106.3333333333333</v>
+        <v>287</v>
       </c>
       <c r="AO5">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AP5">
-        <v>107</v>
+        <v>120</v>
+      </c>
+      <c r="AQ5">
+        <v>134.1614906832298</v>
+      </c>
+      <c r="AR5">
+        <v>107.3333333333333</v>
       </c>
       <c r="AU5" t="s">
-        <v>229</v>
+        <v>376</v>
       </c>
       <c r="AV5" t="s">
-        <v>169</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>169</v>
+        <v>383</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>383</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>388</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>176</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>176</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>385</v>
       </c>
       <c r="BQ5" t="s">
-        <v>241</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>246</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>251</v>
-      </c>
-      <c r="BT5" t="s">
+        <v>397</v>
+      </c>
+      <c r="BU5">
+        <v>29</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>32</v>
+      </c>
+      <c r="BX5">
+        <v>0.015</v>
+      </c>
+      <c r="BY5">
+        <v>12</v>
+      </c>
+      <c r="BZ5">
+        <v>6</v>
+      </c>
+      <c r="CA5">
         <v>258</v>
       </c>
-      <c r="BU5">
-        <v>27</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>30</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>26</v>
-      </c>
-      <c r="BX5">
-        <v>0</v>
-      </c>
-      <c r="BY5">
-        <v>8</v>
-      </c>
-      <c r="BZ5">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="CA5">
-        <v>842</v>
-      </c>
       <c r="CB5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="CC5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CD5">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="CE5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CF5">
         <v>1</v>
       </c>
       <c r="CG5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CH5">
         <v>0</v>
@@ -3709,34 +4022,37 @@
         <v>0</v>
       </c>
       <c r="CN5">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="CO5">
-        <v>2.666666666666667</v>
+        <v>12</v>
       </c>
       <c r="CP5">
-        <v>842</v>
+        <v>816</v>
       </c>
       <c r="CQ5">
-        <v>0.003167062549485352</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="CR5">
-        <v>0.02666666666666666</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="CS5">
-        <v>8.42</v>
+        <v>2.863157894736842</v>
       </c>
       <c r="CT5">
-        <v>0.02507836990595611</v>
+        <v>0.04181184668989547</v>
       </c>
       <c r="CU5">
-        <v>7.918495297805643</v>
+        <v>2.843205574912892</v>
+      </c>
+      <c r="CV5">
+        <v>0.08944444444444444</v>
       </c>
       <c r="CW5">
-        <v>421344.4545454545</v>
+        <v>1045963.636363636</v>
       </c>
       <c r="CX5">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="CY5">
         <v>-1</v>
@@ -3750,130 +4066,196 @@
         <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>44748</v>
+        <v>44761</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>308</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="J6" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>297</v>
       </c>
       <c r="M6">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c r="N6">
-        <v>56</v>
+        <v>317</v>
       </c>
       <c r="O6" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="Q6" t="s">
-        <v>174</v>
+        <v>209</v>
+      </c>
+      <c r="R6" t="s">
+        <v>220</v>
+      </c>
+      <c r="S6" t="s">
+        <v>230</v>
       </c>
       <c r="T6" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="U6" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="V6" t="s">
+        <v>261</v>
+      </c>
+      <c r="W6" t="s">
+        <v>215</v>
+      </c>
+      <c r="X6" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>323</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>347</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>368</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>372</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM6">
+        <v>365.8</v>
+      </c>
+      <c r="AN6">
+        <v>326.3</v>
+      </c>
+      <c r="AO6">
+        <v>52</v>
+      </c>
+      <c r="AP6">
+        <v>277</v>
+      </c>
+      <c r="AQ6">
+        <v>23.54865085854456</v>
+      </c>
+      <c r="AR6">
+        <v>305.75</v>
+      </c>
+      <c r="AU6" t="s">
         <v>220</v>
       </c>
-      <c r="AM6">
-        <v>69.33333333333333</v>
-      </c>
-      <c r="AN6">
-        <v>57.66666666666666</v>
-      </c>
-      <c r="AO6">
-        <v>101</v>
-      </c>
-      <c r="AP6">
-        <v>107</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>229</v>
-      </c>
       <c r="AV6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>169</v>
+        <v>176</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>385</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>389</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>382</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>176</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>177</v>
       </c>
       <c r="BQ6" t="s">
-        <v>241</v>
+        <v>398</v>
       </c>
       <c r="BR6" t="s">
-        <v>246</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>252</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>258</v>
+        <v>403</v>
       </c>
       <c r="BU6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BV6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="BW6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="BX6">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="BY6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BZ6">
-        <v>2.666666666666667</v>
+        <v>10</v>
       </c>
       <c r="CA6">
-        <v>842</v>
+        <v>370</v>
       </c>
       <c r="CB6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CC6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CD6">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="CE6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CF6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CG6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="CH6">
         <v>0</v>
@@ -3894,34 +4276,37 @@
         <v>0</v>
       </c>
       <c r="CN6">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="CO6">
-        <v>2.666666666666667</v>
+        <v>21</v>
       </c>
       <c r="CP6">
-        <v>842</v>
+        <v>881</v>
       </c>
       <c r="CQ6">
-        <v>0.003167062549485352</v>
+        <v>0.02383654937570942</v>
       </c>
       <c r="CR6">
-        <v>0.04938271604938271</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="CS6">
-        <v>15.59259259259259</v>
+        <v>2.966329966329966</v>
       </c>
       <c r="CT6">
-        <v>0.04624277456647399</v>
+        <v>0.06435795280416794</v>
       </c>
       <c r="CU6">
-        <v>14.60115606936416</v>
+        <v>2.699969353355808</v>
+      </c>
+      <c r="CV6">
+        <v>0.8917708333333334</v>
       </c>
       <c r="CW6">
-        <v>421344.4545454545</v>
+        <v>489355.4545454545</v>
       </c>
       <c r="CX6">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="CY6">
         <v>-1</v>
@@ -3935,178 +4320,256 @@
         <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>44748</v>
+        <v>44761</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>423</v>
       </c>
       <c r="E7">
-        <v>122</v>
+        <v>669</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>954</v>
+      </c>
+      <c r="M7">
+        <v>897</v>
+      </c>
+      <c r="N7">
+        <v>1021</v>
+      </c>
+      <c r="O7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>210</v>
+      </c>
+      <c r="R7" t="s">
+        <v>221</v>
+      </c>
+      <c r="S7" t="s">
+        <v>231</v>
+      </c>
+      <c r="T7" t="s">
+        <v>242</v>
+      </c>
+      <c r="U7" t="s">
+        <v>252</v>
+      </c>
+      <c r="V7" t="s">
+        <v>262</v>
+      </c>
+      <c r="W7" t="s">
+        <v>271</v>
+      </c>
+      <c r="X7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>324</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>337</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>348</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>356</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM7">
+        <v>1586.2</v>
+      </c>
+      <c r="AN7">
+        <v>999.8</v>
+      </c>
+      <c r="AO7">
+        <v>40</v>
+      </c>
+      <c r="AP7">
+        <v>180</v>
+      </c>
+      <c r="AQ7">
+        <v>41.92139737991266</v>
+      </c>
+      <c r="AR7">
+        <v>171.75</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>299</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>386</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>209</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>383</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>383</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>385</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>395</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>404</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>408</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>417</v>
+      </c>
+      <c r="BU7">
+        <v>29</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>32</v>
+      </c>
+      <c r="BX7">
+        <v>0.015</v>
+      </c>
+      <c r="BY7">
+        <v>19</v>
+      </c>
+      <c r="BZ7">
+        <v>9.5</v>
+      </c>
+      <c r="CA7">
+        <v>399</v>
+      </c>
+      <c r="CB7">
+        <v>20</v>
+      </c>
+      <c r="CC7">
+        <v>10</v>
+      </c>
+      <c r="CD7">
+        <v>388</v>
+      </c>
+      <c r="CE7">
+        <v>3</v>
+      </c>
+      <c r="CF7">
+        <v>4</v>
+      </c>
+      <c r="CG7">
+        <v>12</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
         <v>39</v>
       </c>
-      <c r="H7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I7" t="s">
-        <v>164</v>
-      </c>
-      <c r="J7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>280</v>
-      </c>
-      <c r="M7">
-        <v>267</v>
-      </c>
-      <c r="N7">
-        <v>292</v>
-      </c>
-      <c r="O7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>193</v>
-      </c>
-      <c r="T7" t="s">
-        <v>196</v>
-      </c>
-      <c r="U7" t="s">
-        <v>214</v>
-      </c>
-      <c r="V7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM7">
-        <v>351.3333333333333</v>
-      </c>
-      <c r="AN7">
-        <v>299.6666666666667</v>
-      </c>
-      <c r="AO7">
-        <v>64</v>
-      </c>
-      <c r="AP7">
-        <v>113</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>230</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>241</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>246</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>253</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>258</v>
-      </c>
-      <c r="BU7">
-        <v>27</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>26</v>
-      </c>
-      <c r="BX7">
-        <v>0</v>
-      </c>
-      <c r="BY7">
-        <v>4</v>
-      </c>
-      <c r="BZ7">
-        <v>4</v>
-      </c>
-      <c r="CA7">
-        <v>84</v>
-      </c>
-      <c r="CB7">
-        <v>0</v>
-      </c>
-      <c r="CC7">
-        <v>0</v>
-      </c>
-      <c r="CD7">
-        <v>0</v>
-      </c>
-      <c r="CE7">
-        <v>2</v>
-      </c>
-      <c r="CF7">
-        <v>2</v>
-      </c>
-      <c r="CG7">
-        <v>0</v>
-      </c>
-      <c r="CH7">
-        <v>0</v>
-      </c>
-      <c r="CI7">
-        <v>0</v>
-      </c>
-      <c r="CJ7">
-        <v>0</v>
-      </c>
-      <c r="CK7">
-        <v>0</v>
-      </c>
-      <c r="CL7">
-        <v>0</v>
-      </c>
-      <c r="CM7">
-        <v>0</v>
-      </c>
-      <c r="CN7">
-        <v>4</v>
-      </c>
       <c r="CO7">
-        <v>4</v>
+        <v>19.5</v>
       </c>
       <c r="CP7">
-        <v>84</v>
+        <v>787</v>
       </c>
       <c r="CQ7">
-        <v>0.04761904761904762</v>
+        <v>0.02477763659466328</v>
       </c>
       <c r="CR7">
-        <v>0.01428571428571429</v>
+        <v>0.02044025157232704</v>
       </c>
       <c r="CS7">
-        <v>0.3</v>
+        <v>0.8249475890985325</v>
       </c>
       <c r="CT7">
-        <v>0.01334816462736374</v>
+        <v>0.01950390078015603</v>
       </c>
       <c r="CU7">
-        <v>0.2803114571746385</v>
+        <v>0.7871574314862972</v>
+      </c>
+      <c r="CV7">
+        <v>0.46515625</v>
       </c>
       <c r="CW7">
-        <v>26635.63636363636</v>
+        <v>336263.6363636364</v>
       </c>
       <c r="CX7">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="CY7">
         <v>-1</v>
@@ -4120,124 +4583,196 @@
         <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>44748</v>
+        <v>44761</v>
       </c>
       <c r="D8">
-        <v>137</v>
+        <v>384</v>
       </c>
       <c r="E8">
-        <v>273</v>
+        <v>556</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="I8" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="J8" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L8">
-        <v>564</v>
+        <v>1066</v>
       </c>
       <c r="M8">
-        <v>524</v>
+        <v>1003</v>
       </c>
       <c r="N8">
-        <v>603</v>
+        <v>1141</v>
       </c>
       <c r="O8" t="s">
+        <v>185</v>
+      </c>
+      <c r="P8" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>211</v>
+      </c>
+      <c r="R8" t="s">
+        <v>222</v>
+      </c>
+      <c r="S8" t="s">
+        <v>232</v>
+      </c>
+      <c r="T8" t="s">
+        <v>243</v>
+      </c>
+      <c r="U8" t="s">
+        <v>253</v>
+      </c>
+      <c r="V8" t="s">
+        <v>263</v>
+      </c>
+      <c r="W8" t="s">
+        <v>272</v>
+      </c>
+      <c r="X8" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>338</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>349</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>357</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>362</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>369</v>
+      </c>
+      <c r="AM8">
+        <v>1827</v>
+      </c>
+      <c r="AN8">
+        <v>1315.6</v>
+      </c>
+      <c r="AO8">
+        <v>21</v>
+      </c>
+      <c r="AP8">
+        <v>180</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>377</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>383</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>385</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>179</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>179</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>390</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>177</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>177</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>393</v>
+      </c>
+      <c r="BL8" t="s">
         <v>176</v>
       </c>
-      <c r="P8" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>194</v>
-      </c>
-      <c r="T8" t="s">
-        <v>205</v>
-      </c>
-      <c r="U8" t="s">
-        <v>215</v>
-      </c>
-      <c r="V8" t="s">
-        <v>222</v>
-      </c>
-      <c r="AM8">
-        <v>739</v>
-      </c>
-      <c r="AN8">
-        <v>571.3333333333334</v>
-      </c>
-      <c r="AO8">
-        <v>93</v>
-      </c>
-      <c r="AP8">
-        <v>116</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>231</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>168</v>
-      </c>
       <c r="BQ8" t="s">
-        <v>242</v>
+        <v>395</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>404</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>409</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>417</v>
       </c>
       <c r="BU8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BV8" t="s">
+        <v>34</v>
+      </c>
+      <c r="BW8" t="s">
         <v>32</v>
       </c>
-      <c r="BW8" t="s">
-        <v>26</v>
-      </c>
       <c r="BX8">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="BY8">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="BZ8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CA8">
-        <v>966</v>
+        <v>124</v>
       </c>
       <c r="CB8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CC8">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="CD8">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="CE8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CF8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CH8">
         <v>0</v>
@@ -4258,34 +4793,34 @@
         <v>0</v>
       </c>
       <c r="CN8">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="CO8">
-        <v>6</v>
+        <v>7.333333333333334</v>
       </c>
       <c r="CP8">
-        <v>966</v>
+        <v>439</v>
       </c>
       <c r="CQ8">
-        <v>0.006211180124223602</v>
+        <v>0.01670463173880031</v>
       </c>
       <c r="CR8">
-        <v>0.01063829787234043</v>
+        <v>0.006879299562226392</v>
       </c>
       <c r="CS8">
-        <v>1.712765957446809</v>
+        <v>0.4118198874296435</v>
       </c>
       <c r="CT8">
-        <v>0.01050175029171528</v>
+        <v>0.005574136008918619</v>
       </c>
       <c r="CU8">
-        <v>1.690781796966161</v>
+        <v>0.3336880510793555</v>
       </c>
       <c r="CW8">
-        <v>445106.4545454545</v>
+        <v>98475.68181818182</v>
       </c>
       <c r="CX8">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="CY8">
         <v>-1</v>
@@ -4299,97 +4834,97 @@
         <v>7</v>
       </c>
       <c r="C9" s="2">
-        <v>44748</v>
+        <v>44761</v>
       </c>
       <c r="D9">
-        <v>243</v>
+        <v>384</v>
       </c>
       <c r="E9">
-        <v>167</v>
+        <v>557</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I9" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="J9" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L9">
-        <v>888</v>
+        <v>182</v>
       </c>
       <c r="M9">
-        <v>825</v>
+        <v>171</v>
       </c>
       <c r="N9">
-        <v>950</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>195</v>
-      </c>
-      <c r="V9" t="s">
-        <v>223</v>
-      </c>
-      <c r="AM9">
-        <v>1002</v>
-      </c>
-      <c r="AN9">
-        <v>847</v>
+        <v>194</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>291</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>265</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>286</v>
       </c>
       <c r="AO9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AP9">
-        <v>131</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>232</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>239</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>169</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>168</v>
+        <v>180</v>
+      </c>
+      <c r="AQ9">
+        <v>21.91780821917808</v>
+      </c>
+      <c r="AR9">
+        <v>164.25</v>
       </c>
       <c r="BQ9" t="s">
-        <v>242</v>
+        <v>395</v>
       </c>
       <c r="BR9" t="s">
-        <v>242</v>
+        <v>404</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>410</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>418</v>
       </c>
       <c r="BU9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BV9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BW9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="BX9">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="BY9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BZ9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CA9">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="CB9">
         <v>0</v>
@@ -4401,10 +4936,10 @@
         <v>0</v>
       </c>
       <c r="CE9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CF9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CG9">
         <v>0</v>
@@ -4428,37 +4963,28 @@
         <v>0</v>
       </c>
       <c r="CN9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CO9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CP9">
-        <v>409</v>
-      </c>
-      <c r="CQ9">
-        <v>0.01222493887530562</v>
+        <v>0</v>
       </c>
       <c r="CR9">
-        <v>0.00563063063063063</v>
+        <v>0</v>
       </c>
       <c r="CS9">
-        <v>0.4605855855855856</v>
-      </c>
-      <c r="CT9">
-        <v>0.005903187721369539</v>
-      </c>
-      <c r="CU9">
-        <v>0.4828807556080283</v>
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
       </c>
       <c r="CW9">
-        <v>111452.5</v>
+        <v>0</v>
       </c>
       <c r="CX9">
-        <v>109</v>
-      </c>
-      <c r="CY9">
-        <v>-1</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:103">
@@ -4469,94 +4995,103 @@
         <v>7</v>
       </c>
       <c r="C10" s="2">
-        <v>44748</v>
+        <v>44761</v>
       </c>
       <c r="D10">
-        <v>421</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>667</v>
+        <v>81</v>
       </c>
       <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" t="s">
+        <v>173</v>
+      </c>
+      <c r="J10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>388</v>
+      </c>
+      <c r="M10">
+        <v>360</v>
+      </c>
+      <c r="N10">
+        <v>415</v>
+      </c>
+      <c r="O10" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" t="s">
+        <v>198</v>
+      </c>
+      <c r="T10" t="s">
+        <v>244</v>
+      </c>
+      <c r="U10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM10">
+        <v>592.5</v>
+      </c>
+      <c r="AN10">
+        <v>390.5</v>
+      </c>
+      <c r="AO10">
+        <v>60</v>
+      </c>
+      <c r="AP10">
+        <v>120</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>383</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>398</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>405</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>411</v>
+      </c>
+      <c r="BU10">
+        <v>29</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>41</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>32</v>
+      </c>
+      <c r="BX10">
+        <v>0.015</v>
+      </c>
+      <c r="BY10">
         <v>8</v>
       </c>
-      <c r="G10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" t="s">
-        <v>156</v>
-      </c>
-      <c r="I10" t="s">
-        <v>163</v>
-      </c>
-      <c r="J10" t="s">
-        <v>168</v>
-      </c>
-      <c r="K10">
-        <v>4</v>
-      </c>
-      <c r="L10">
-        <v>1554</v>
-      </c>
-      <c r="M10">
-        <v>1462</v>
-      </c>
-      <c r="N10">
-        <v>1664</v>
-      </c>
-      <c r="O10" t="s">
-        <v>177</v>
-      </c>
-      <c r="T10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM10">
-        <v>2080</v>
-      </c>
-      <c r="AN10">
-        <v>1487</v>
-      </c>
-      <c r="AO10">
-        <v>18</v>
-      </c>
-      <c r="AP10">
-        <v>200</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>233</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>241</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>245</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>254</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>257</v>
-      </c>
-      <c r="BU10">
-        <v>27</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>47</v>
-      </c>
-      <c r="BW10" t="s">
-        <v>26</v>
-      </c>
-      <c r="BX10">
-        <v>0</v>
-      </c>
-      <c r="BY10">
-        <v>0</v>
-      </c>
       <c r="BZ10">
-        <v>0</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="CA10">
-        <v>180</v>
+        <v>522</v>
       </c>
       <c r="CB10">
         <v>0</v>
@@ -4574,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="CG10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CH10">
         <v>0</v>
@@ -4595,34 +5130,34 @@
         <v>0</v>
       </c>
       <c r="CN10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO10">
-        <v>0</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="CP10">
-        <v>180</v>
+        <v>522</v>
       </c>
       <c r="CQ10">
-        <v>0</v>
+        <v>0.005108556832694763</v>
       </c>
       <c r="CR10">
-        <v>0</v>
+        <v>0.006872852233676976</v>
       </c>
       <c r="CS10">
-        <v>0.1158301158301158</v>
+        <v>1.345360824742268</v>
       </c>
       <c r="CT10">
-        <v>0</v>
+        <v>0.006828851899274434</v>
       </c>
       <c r="CU10">
-        <v>0.121049092131809</v>
+        <v>1.336747759282971</v>
       </c>
       <c r="CW10">
-        <v>16052.72727272727</v>
+        <v>334554.5454545455</v>
       </c>
       <c r="CX10">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="CY10">
         <v>-1</v>
@@ -4636,82 +5171,76 @@
         <v>7</v>
       </c>
       <c r="C11" s="2">
-        <v>44748</v>
+        <v>44761</v>
       </c>
       <c r="D11">
-        <v>421</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>673</v>
+        <v>83</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
         <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I11" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="J11" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="M11">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="N11">
-        <v>65</v>
-      </c>
-      <c r="O11" t="s">
-        <v>178</v>
-      </c>
-      <c r="T11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AM11">
-        <v>78</v>
-      </c>
-      <c r="AN11">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>258</v>
       </c>
       <c r="AO11">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="AP11">
-        <v>200</v>
+        <v>120</v>
+      </c>
+      <c r="AQ11">
+        <v>66.05504587155963</v>
+      </c>
+      <c r="AR11">
+        <v>109</v>
       </c>
       <c r="BQ11" t="s">
-        <v>241</v>
+        <v>398</v>
       </c>
       <c r="BR11" t="s">
-        <v>245</v>
+        <v>405</v>
       </c>
       <c r="BS11" t="s">
-        <v>255</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>257</v>
+        <v>412</v>
       </c>
       <c r="BU11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BV11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="BW11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="BX11">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="BY11">
         <v>0</v>
@@ -4773,20 +5302,14 @@
       <c r="CS11">
         <v>0</v>
       </c>
-      <c r="CT11">
-        <v>0</v>
-      </c>
-      <c r="CU11">
+      <c r="CV11">
         <v>0</v>
       </c>
       <c r="CW11">
         <v>0</v>
       </c>
       <c r="CX11">
-        <v>109</v>
-      </c>
-      <c r="CY11">
-        <v>-1</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:103">
@@ -4797,106 +5320,136 @@
         <v>7</v>
       </c>
       <c r="C12" s="2">
-        <v>44748</v>
+        <v>44761</v>
       </c>
       <c r="D12">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="E12">
-        <v>452</v>
+        <v>667</v>
       </c>
       <c r="F12">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I12" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="J12" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>270</v>
+        <v>1554</v>
       </c>
       <c r="M12">
-        <v>251</v>
+        <v>1462</v>
       </c>
       <c r="N12">
-        <v>288</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>196</v>
-      </c>
-      <c r="V12" t="s">
-        <v>224</v>
+        <v>1664</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>316</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>333</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>339</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>350</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>363</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>363</v>
       </c>
       <c r="AM12">
-        <v>290</v>
+        <v>2133.4</v>
       </c>
       <c r="AN12">
-        <v>230</v>
+        <v>1655</v>
       </c>
       <c r="AO12">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="AP12">
-        <v>150</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>234</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>167</v>
+        <v>200</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>177</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>177</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>393</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>176</v>
       </c>
       <c r="BQ12" t="s">
-        <v>243</v>
+        <v>395</v>
       </c>
       <c r="BR12" t="s">
-        <v>247</v>
+        <v>404</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>413</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>417</v>
       </c>
       <c r="BU12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BV12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="BW12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="BX12">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="BY12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BZ12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA12">
-        <v>1203</v>
+        <v>0</v>
       </c>
       <c r="CB12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CC12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CD12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CE12">
         <v>1</v>
@@ -4905,55 +5458,55 @@
         <v>1</v>
       </c>
       <c r="CG12">
+        <v>2</v>
+      </c>
+      <c r="CH12">
+        <v>0</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <v>0</v>
+      </c>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <v>20</v>
+      </c>
+      <c r="CO12">
+        <v>5</v>
+      </c>
+      <c r="CP12">
+        <v>5</v>
+      </c>
+      <c r="CQ12">
         <v>1</v>
       </c>
-      <c r="CH12">
-        <v>0</v>
-      </c>
-      <c r="CI12">
-        <v>0</v>
-      </c>
-      <c r="CJ12">
-        <v>0</v>
-      </c>
-      <c r="CK12">
-        <v>0</v>
-      </c>
-      <c r="CL12">
-        <v>0</v>
-      </c>
-      <c r="CM12">
-        <v>0</v>
-      </c>
-      <c r="CN12">
-        <v>6</v>
-      </c>
-      <c r="CO12">
-        <v>3</v>
-      </c>
-      <c r="CP12">
-        <v>1203</v>
-      </c>
-      <c r="CQ12">
-        <v>0.002493765586034913</v>
-      </c>
       <c r="CR12">
-        <v>0.01111111111111111</v>
+        <v>0.003217503217503217</v>
       </c>
       <c r="CS12">
-        <v>4.455555555555556</v>
+        <v>0.003217503217503217</v>
       </c>
       <c r="CT12">
-        <v>0.01304347826086956</v>
+        <v>0.003021148036253776</v>
       </c>
       <c r="CU12">
-        <v>5.230434782608696</v>
+        <v>0.003021148036253776</v>
       </c>
       <c r="CW12">
-        <v>572190.5454545454</v>
+        <v>961.3636363636363</v>
       </c>
       <c r="CX12">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="CY12">
         <v>-1</v>
@@ -4967,97 +5520,127 @@
         <v>7</v>
       </c>
       <c r="C13" s="2">
-        <v>44748</v>
+        <v>44761</v>
       </c>
       <c r="D13">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="E13">
-        <v>453</v>
+        <v>673</v>
       </c>
       <c r="F13">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="I13" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="J13" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L13">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="M13">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="N13">
-        <v>187</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>197</v>
-      </c>
-      <c r="V13" t="s">
-        <v>198</v>
+        <v>65</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>351</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>321</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>355</v>
       </c>
       <c r="AM13">
-        <v>198</v>
+        <v>102.4</v>
       </c>
       <c r="AN13">
-        <v>160</v>
+        <v>74.2</v>
       </c>
       <c r="AO13">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="AP13">
-        <v>150</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>234</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>166</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>167</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>168</v>
+        <v>200</v>
+      </c>
+      <c r="AQ13">
+        <v>20.39660056657224</v>
+      </c>
+      <c r="AR13">
+        <v>176.5</v>
       </c>
       <c r="BQ13" t="s">
-        <v>243</v>
+        <v>395</v>
       </c>
       <c r="BR13" t="s">
-        <v>247</v>
+        <v>404</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>414</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>417</v>
       </c>
       <c r="BU13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BV13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="BW13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="BX13">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="BY13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BZ13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA13">
-        <v>1203</v>
+        <v>0</v>
       </c>
       <c r="CB13">
         <v>0</v>
@@ -5069,10 +5652,10 @@
         <v>0</v>
       </c>
       <c r="CE13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG13">
         <v>0</v>
@@ -5096,34 +5679,34 @@
         <v>0</v>
       </c>
       <c r="CN13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CP13">
-        <v>1203</v>
-      </c>
-      <c r="CQ13">
-        <v>0.002493765586034913</v>
+        <v>0</v>
       </c>
       <c r="CR13">
-        <v>0.01714285714285714</v>
+        <v>0</v>
       </c>
       <c r="CS13">
-        <v>6.874285714285715</v>
+        <v>0</v>
       </c>
       <c r="CT13">
-        <v>0.01875</v>
+        <v>0</v>
       </c>
       <c r="CU13">
-        <v>7.51875</v>
+        <v>0</v>
+      </c>
+      <c r="CV13">
+        <v>0</v>
       </c>
       <c r="CW13">
-        <v>572190.5454545454</v>
+        <v>0</v>
       </c>
       <c r="CX13">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="CY13">
         <v>-1</v>
@@ -5137,100 +5720,154 @@
         <v>7</v>
       </c>
       <c r="C14" s="2">
-        <v>44748</v>
+        <v>44761</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>432</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>450</v>
       </c>
       <c r="F14">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I14" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="J14" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>111</v>
+        <v>270</v>
       </c>
       <c r="M14">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c r="N14">
-        <v>118</v>
+        <v>288</v>
       </c>
       <c r="O14" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="Q14" t="s">
-        <v>198</v>
+        <v>212</v>
+      </c>
+      <c r="R14" t="s">
+        <v>223</v>
+      </c>
+      <c r="S14" t="s">
+        <v>233</v>
       </c>
       <c r="T14" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="U14" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="V14" t="s">
-        <v>225</v>
+        <v>264</v>
+      </c>
+      <c r="W14" t="s">
+        <v>273</v>
+      </c>
+      <c r="X14" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>352</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>365</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>343</v>
       </c>
       <c r="AM14">
-        <v>153.6666666666667</v>
+        <v>335.8</v>
       </c>
       <c r="AN14">
-        <v>109.6666666666667</v>
+        <v>267.5</v>
       </c>
       <c r="AO14">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AP14">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AU14" t="s">
-        <v>235</v>
+        <v>379</v>
       </c>
       <c r="AV14" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="AW14" t="s">
-        <v>167</v>
+        <v>382</v>
       </c>
       <c r="AX14" t="s">
-        <v>168</v>
+        <v>177</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>375</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>176</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>178</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>176</v>
       </c>
       <c r="BQ14" t="s">
-        <v>244</v>
+        <v>398</v>
       </c>
       <c r="BR14" t="s">
-        <v>244</v>
+        <v>406</v>
       </c>
       <c r="BU14">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BV14" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="BW14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="BX14">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="BY14">
         <v>11</v>
@@ -5239,25 +5876,25 @@
         <v>5.5</v>
       </c>
       <c r="CA14">
-        <v>981</v>
+        <v>805</v>
       </c>
       <c r="CB14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CC14">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CD14">
-        <v>0</v>
+        <v>1202</v>
       </c>
       <c r="CE14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CF14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CG14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CH14">
         <v>0</v>
@@ -5278,34 +5915,34 @@
         <v>0</v>
       </c>
       <c r="CN14">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="CO14">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="CP14">
-        <v>981</v>
+        <v>2007</v>
       </c>
       <c r="CQ14">
-        <v>0.005606523955147808</v>
+        <v>0.003986048829098156</v>
       </c>
       <c r="CR14">
-        <v>0.04954954954954955</v>
+        <v>0.02962962962962963</v>
       </c>
       <c r="CS14">
-        <v>8.837837837837839</v>
+        <v>7.433333333333334</v>
       </c>
       <c r="CT14">
-        <v>0.05015197568389058</v>
+        <v>0.02990654205607477</v>
       </c>
       <c r="CU14">
-        <v>8.945288753799392</v>
+        <v>7.502803738317757</v>
       </c>
       <c r="CW14">
-        <v>524924.1818181818</v>
+        <v>2572609.090909091</v>
       </c>
       <c r="CX14">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="CY14">
         <v>-1</v>
@@ -5319,127 +5956,184 @@
         <v>7</v>
       </c>
       <c r="C15" s="2">
-        <v>44748</v>
+        <v>44761</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>432</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>451</v>
       </c>
       <c r="F15">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="K15">
         <v>2</v>
       </c>
       <c r="L15">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="M15">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="N15">
+        <v>187</v>
+      </c>
+      <c r="O15" t="s">
+        <v>188</v>
+      </c>
+      <c r="P15" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>213</v>
+      </c>
+      <c r="R15" t="s">
+        <v>224</v>
+      </c>
+      <c r="S15" t="s">
+        <v>213</v>
+      </c>
+      <c r="T15" t="s">
+        <v>246</v>
+      </c>
+      <c r="U15" t="s">
+        <v>193</v>
+      </c>
+      <c r="V15" t="s">
+        <v>265</v>
+      </c>
+      <c r="W15" t="s">
+        <v>259</v>
+      </c>
+      <c r="X15" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>334</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>373</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM15">
+        <v>235.3</v>
+      </c>
+      <c r="AN15">
+        <v>173.2</v>
+      </c>
+      <c r="AO15">
         <v>120</v>
       </c>
-      <c r="O15" t="s">
-        <v>180</v>
-      </c>
-      <c r="P15" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>199</v>
-      </c>
-      <c r="T15" t="s">
-        <v>209</v>
-      </c>
-      <c r="U15" t="s">
-        <v>217</v>
-      </c>
-      <c r="V15" t="s">
-        <v>226</v>
-      </c>
-      <c r="AM15">
-        <v>136.3333333333333</v>
-      </c>
-      <c r="AN15">
-        <v>106.3333333333333</v>
-      </c>
-      <c r="AO15">
-        <v>108</v>
-      </c>
       <c r="AP15">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="AQ15">
+        <v>97.07865168539325</v>
+      </c>
+      <c r="AR15">
+        <v>111.25</v>
       </c>
       <c r="AU15" t="s">
-        <v>236</v>
+        <v>379</v>
       </c>
       <c r="AV15" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="AW15" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="AX15" t="s">
-        <v>167</v>
+        <v>383</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>375</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>179</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>176</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>178</v>
       </c>
       <c r="BQ15" t="s">
-        <v>244</v>
+        <v>398</v>
       </c>
       <c r="BR15" t="s">
-        <v>244</v>
+        <v>406</v>
       </c>
       <c r="BU15">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BV15" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="BW15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="BX15">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="BY15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BZ15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA15">
-        <v>1070</v>
+        <v>805</v>
       </c>
       <c r="CB15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CC15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CD15">
-        <v>0</v>
+        <v>1203</v>
       </c>
       <c r="CE15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CF15">
         <v>1</v>
       </c>
       <c r="CG15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH15">
         <v>0</v>
@@ -5460,34 +6154,37 @@
         <v>0</v>
       </c>
       <c r="CN15">
+        <v>16</v>
+      </c>
+      <c r="CO15">
         <v>8</v>
       </c>
-      <c r="CO15">
-        <v>4</v>
-      </c>
       <c r="CP15">
-        <v>1070</v>
+        <v>2008</v>
       </c>
       <c r="CQ15">
-        <v>0.003738317757009346</v>
+        <v>0.00398406374501992</v>
       </c>
       <c r="CR15">
-        <v>0.03539823008849557</v>
+        <v>0.04571428571428571</v>
       </c>
       <c r="CS15">
-        <v>9.469026548672566</v>
+        <v>11.47428571428572</v>
       </c>
       <c r="CT15">
-        <v>0.03761755485893417</v>
+        <v>0.04618937644341801</v>
       </c>
       <c r="CU15">
-        <v>10.06269592476489</v>
+        <v>11.59353348729792</v>
+      </c>
+      <c r="CV15">
+        <v>0.08240740740740742</v>
       </c>
       <c r="CW15">
-        <v>572547.2727272727</v>
+        <v>2573890.909090909</v>
       </c>
       <c r="CX15">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="CY15">
         <v>-1</v>
@@ -5501,85 +6198,175 @@
         <v>7</v>
       </c>
       <c r="C16" s="2">
-        <v>44748</v>
+        <v>44761</v>
       </c>
       <c r="D16">
+        <v>404</v>
+      </c>
+      <c r="E16">
+        <v>618</v>
+      </c>
+      <c r="F16">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>168</v>
+      </c>
+      <c r="I16" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" t="s">
+        <v>177</v>
+      </c>
+      <c r="K16">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" t="s">
-        <v>161</v>
-      </c>
-      <c r="I16" t="s">
-        <v>163</v>
-      </c>
-      <c r="J16" t="s">
-        <v>166</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
       <c r="L16">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="M16">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="N16">
-        <v>120</v>
+        <v>57</v>
+      </c>
+      <c r="O16" t="s">
+        <v>189</v>
+      </c>
+      <c r="P16" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>214</v>
+      </c>
+      <c r="R16" t="s">
+        <v>225</v>
+      </c>
+      <c r="S16" t="s">
+        <v>234</v>
+      </c>
+      <c r="T16" t="s">
+        <v>247</v>
+      </c>
+      <c r="U16" t="s">
+        <v>256</v>
+      </c>
+      <c r="V16" t="s">
+        <v>266</v>
+      </c>
+      <c r="W16" t="s">
+        <v>247</v>
+      </c>
+      <c r="X16" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>342</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>353</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>292</v>
+      </c>
+      <c r="AM16">
+        <v>78.85714285714286</v>
+      </c>
+      <c r="AN16">
+        <v>67.57142857142857</v>
       </c>
       <c r="AO16">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="AP16">
-        <v>100</v>
+        <v>180</v>
+      </c>
+      <c r="AQ16">
+        <v>105.3658536585366</v>
+      </c>
+      <c r="AR16">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>380</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>177</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>385</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>215</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>178</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>178</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>179</v>
       </c>
       <c r="BQ16" t="s">
-        <v>244</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>244</v>
+        <v>399</v>
       </c>
       <c r="BU16">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BV16" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>36</v>
       </c>
       <c r="BX16">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="BY16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BZ16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="CA16">
-        <v>0</v>
+        <v>1106</v>
       </c>
       <c r="CB16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CC16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CD16">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="CE16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CF16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CH16">
         <v>0</v>
@@ -5600,28 +6387,43 @@
         <v>0</v>
       </c>
       <c r="CN16">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="CO16">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="CP16">
-        <v>0</v>
+        <v>1411</v>
+      </c>
+      <c r="CQ16">
+        <v>0.01346562721474132</v>
       </c>
       <c r="CR16">
-        <v>0</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="CS16">
-        <v>0</v>
+        <v>25.65454545454546</v>
+      </c>
+      <c r="CT16">
+        <v>0.2811839323467231</v>
+      </c>
+      <c r="CU16">
+        <v>20.8816067653277</v>
+      </c>
+      <c r="CV16">
+        <v>0.1803240740740741</v>
       </c>
       <c r="CW16">
-        <v>0</v>
+        <v>1205763.636363636</v>
       </c>
       <c r="CX16">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:102">
+        <v>235</v>
+      </c>
+      <c r="CY16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:103">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -5629,133 +6431,223 @@
         <v>7</v>
       </c>
       <c r="C17" s="2">
-        <v>44748</v>
+        <v>44761</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>433</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>452</v>
+      </c>
+      <c r="F17">
+        <v>48</v>
       </c>
       <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>270</v>
+      </c>
+      <c r="M17">
+        <v>251</v>
+      </c>
+      <c r="N17">
+        <v>288</v>
+      </c>
+      <c r="P17" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>215</v>
+      </c>
+      <c r="S17" t="s">
+        <v>235</v>
+      </c>
+      <c r="U17" t="s">
+        <v>239</v>
+      </c>
+      <c r="V17" t="s">
+        <v>267</v>
+      </c>
+      <c r="X17" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>343</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>354</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>335</v>
+      </c>
+      <c r="AM17">
+        <v>341.125</v>
+      </c>
+      <c r="AN17">
+        <v>266</v>
+      </c>
+      <c r="AO17">
+        <v>96</v>
+      </c>
+      <c r="AP17">
+        <v>150</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>379</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>383</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>385</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>375</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>383</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>176</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>394</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>398</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>406</v>
+      </c>
+      <c r="BU17">
+        <v>29</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>16</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX17">
+        <v>0.02</v>
+      </c>
+      <c r="BY17">
+        <v>16</v>
+      </c>
+      <c r="BZ17">
+        <v>8</v>
+      </c>
+      <c r="CA17">
+        <v>808</v>
+      </c>
+      <c r="CB17">
+        <v>22</v>
+      </c>
+      <c r="CC17">
+        <v>11</v>
+      </c>
+      <c r="CD17">
+        <v>1211</v>
+      </c>
+      <c r="CE17">
+        <v>6</v>
+      </c>
+      <c r="CF17">
+        <v>2</v>
+      </c>
+      <c r="CG17">
+        <v>11</v>
+      </c>
+      <c r="CH17">
+        <v>0</v>
+      </c>
+      <c r="CI17">
+        <v>0</v>
+      </c>
+      <c r="CJ17">
+        <v>0</v>
+      </c>
+      <c r="CK17">
+        <v>0</v>
+      </c>
+      <c r="CL17">
+        <v>0</v>
+      </c>
+      <c r="CM17">
+        <v>0</v>
+      </c>
+      <c r="CN17">
         <v>38</v>
       </c>
-      <c r="H17" t="s">
-        <v>152</v>
-      </c>
-      <c r="I17" t="s">
-        <v>164</v>
-      </c>
-      <c r="J17" t="s">
-        <v>167</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>54</v>
-      </c>
-      <c r="M17">
-        <v>51</v>
-      </c>
-      <c r="N17">
-        <v>56</v>
-      </c>
-      <c r="AO17">
-        <v>101</v>
-      </c>
-      <c r="AP17">
-        <v>107</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>241</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>246</v>
-      </c>
-      <c r="BS17" t="s">
-        <v>252</v>
-      </c>
-      <c r="BT17" t="s">
-        <v>258</v>
-      </c>
-      <c r="BU17">
-        <v>27</v>
-      </c>
-      <c r="BV17" t="s">
-        <v>30</v>
-      </c>
-      <c r="BX17">
-        <v>0</v>
-      </c>
-      <c r="BY17">
-        <v>0</v>
-      </c>
-      <c r="BZ17">
-        <v>0</v>
-      </c>
-      <c r="CA17">
-        <v>0</v>
-      </c>
-      <c r="CB17">
-        <v>0</v>
-      </c>
-      <c r="CC17">
-        <v>0</v>
-      </c>
-      <c r="CD17">
-        <v>0</v>
-      </c>
-      <c r="CE17">
-        <v>0</v>
-      </c>
-      <c r="CF17">
-        <v>0</v>
-      </c>
-      <c r="CG17">
-        <v>0</v>
-      </c>
-      <c r="CH17">
-        <v>0</v>
-      </c>
-      <c r="CI17">
-        <v>0</v>
-      </c>
-      <c r="CJ17">
-        <v>0</v>
-      </c>
-      <c r="CK17">
-        <v>0</v>
-      </c>
-      <c r="CL17">
-        <v>0</v>
-      </c>
-      <c r="CM17">
-        <v>0</v>
-      </c>
-      <c r="CN17">
-        <v>0</v>
-      </c>
       <c r="CO17">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="CP17">
-        <v>0</v>
+        <v>2019</v>
+      </c>
+      <c r="CQ17">
+        <v>0.009410599306587419</v>
       </c>
       <c r="CR17">
-        <v>0</v>
+        <v>0.07037037037037037</v>
       </c>
       <c r="CS17">
-        <v>0</v>
+        <v>7.477777777777778</v>
+      </c>
+      <c r="CT17">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="CU17">
+        <v>7.590225563909774</v>
       </c>
       <c r="CW17">
-        <v>0</v>
+        <v>2070392.727272727</v>
       </c>
       <c r="CX17">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:102">
+        <v>235</v>
+      </c>
+      <c r="CY17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:103">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -5763,91 +6655,187 @@
         <v>7</v>
       </c>
       <c r="C18" s="2">
-        <v>44748</v>
+        <v>44761</v>
       </c>
       <c r="D18">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="E18">
-        <v>550</v>
+        <v>453</v>
+      </c>
+      <c r="F18">
+        <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>175</v>
+      </c>
+      <c r="M18">
         <v>162</v>
       </c>
-      <c r="I18" t="s">
-        <v>163</v>
-      </c>
-      <c r="J18" t="s">
-        <v>166</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>35</v>
-      </c>
-      <c r="M18">
-        <v>32</v>
-      </c>
       <c r="N18">
-        <v>38</v>
+        <v>187</v>
+      </c>
+      <c r="P18" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>216</v>
+      </c>
+      <c r="S18" t="s">
+        <v>236</v>
+      </c>
+      <c r="U18" t="s">
+        <v>182</v>
+      </c>
+      <c r="V18" t="s">
+        <v>268</v>
+      </c>
+      <c r="X18" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>334</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>344</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>355</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>238</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>366</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>370</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>260</v>
+      </c>
+      <c r="AM18">
+        <v>218.125</v>
+      </c>
+      <c r="AN18">
+        <v>178.375</v>
       </c>
       <c r="AO18">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="AP18">
-        <v>95</v>
+        <v>150</v>
+      </c>
+      <c r="AQ18">
+        <v>84.83063328424153</v>
+      </c>
+      <c r="AR18">
+        <v>169.75</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>379</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>384</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>177</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>375</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>179</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>178</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>393</v>
       </c>
       <c r="BQ18" t="s">
-        <v>241</v>
+        <v>398</v>
       </c>
       <c r="BR18" t="s">
-        <v>245</v>
-      </c>
-      <c r="BS18" t="s">
-        <v>256</v>
-      </c>
-      <c r="BT18" t="s">
-        <v>257</v>
+        <v>406</v>
       </c>
       <c r="BU18">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BV18" t="s">
-        <v>147</v>
+        <v>16</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>36</v>
       </c>
       <c r="BX18">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="BY18">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BZ18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CA18">
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="CB18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="CC18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CD18">
-        <v>0</v>
+        <v>1207</v>
       </c>
       <c r="CE18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CF18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CG18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CH18">
         <v>0</v>
@@ -5868,28 +6856,43 @@
         <v>0</v>
       </c>
       <c r="CN18">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="CO18">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CP18">
-        <v>0</v>
+        <v>2013</v>
+      </c>
+      <c r="CQ18">
+        <v>0.006458022851465474</v>
       </c>
       <c r="CR18">
-        <v>0</v>
+        <v>0.07428571428571429</v>
       </c>
       <c r="CS18">
-        <v>0</v>
+        <v>11.50285714285714</v>
+      </c>
+      <c r="CT18">
+        <v>0.07288016818500351</v>
+      </c>
+      <c r="CU18">
+        <v>11.28521373510862</v>
+      </c>
+      <c r="CV18">
+        <v>0.1532465277777778</v>
       </c>
       <c r="CW18">
-        <v>0</v>
+        <v>2064240</v>
       </c>
       <c r="CX18">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:102">
+        <v>235</v>
+      </c>
+      <c r="CY18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:103">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -5897,97 +6900,190 @@
         <v>7</v>
       </c>
       <c r="C19" s="2">
-        <v>44748</v>
+        <v>44761</v>
       </c>
       <c r="D19">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>673</v>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H19" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="J19" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>111</v>
+      </c>
+      <c r="M19">
+        <v>103</v>
+      </c>
+      <c r="N19">
+        <v>118</v>
+      </c>
+      <c r="O19" t="s">
+        <v>190</v>
+      </c>
+      <c r="P19" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>217</v>
+      </c>
+      <c r="R19" t="s">
+        <v>226</v>
+      </c>
+      <c r="S19" t="s">
+        <v>237</v>
+      </c>
+      <c r="T19" t="s">
+        <v>248</v>
+      </c>
+      <c r="U19" t="s">
+        <v>257</v>
+      </c>
+      <c r="V19" t="s">
+        <v>269</v>
+      </c>
+      <c r="W19" t="s">
+        <v>248</v>
+      </c>
+      <c r="X19" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>258</v>
+      </c>
+      <c r="AM19">
+        <v>163.1</v>
+      </c>
+      <c r="AN19">
+        <v>109</v>
+      </c>
+      <c r="AO19">
+        <v>108</v>
+      </c>
+      <c r="AP19">
+        <v>100</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>381</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>383</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>178</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>176</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>391</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>178</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>179</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>177</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>400</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>400</v>
+      </c>
+      <c r="BU19">
+        <v>29</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>17</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX19">
+        <v>0.02</v>
+      </c>
+      <c r="BY19">
+        <v>13</v>
+      </c>
+      <c r="BZ19">
+        <v>6.5</v>
+      </c>
+      <c r="CA19">
+        <v>1142</v>
+      </c>
+      <c r="CB19">
+        <v>8</v>
+      </c>
+      <c r="CC19">
         <v>4</v>
       </c>
-      <c r="L19">
-        <v>61</v>
-      </c>
-      <c r="M19">
-        <v>57</v>
-      </c>
-      <c r="N19">
-        <v>65</v>
-      </c>
-      <c r="AO19">
-        <v>18</v>
-      </c>
-      <c r="AP19">
-        <v>200</v>
-      </c>
-      <c r="BQ19" t="s">
-        <v>241</v>
-      </c>
-      <c r="BR19" t="s">
-        <v>245</v>
-      </c>
-      <c r="BS19" t="s">
-        <v>255</v>
-      </c>
-      <c r="BT19" t="s">
-        <v>257</v>
-      </c>
-      <c r="BU19">
-        <v>27</v>
-      </c>
-      <c r="BV19" t="s">
-        <v>47</v>
-      </c>
-      <c r="BX19">
-        <v>0</v>
-      </c>
-      <c r="BY19">
-        <v>0</v>
-      </c>
-      <c r="BZ19">
-        <v>0</v>
-      </c>
-      <c r="CA19">
-        <v>0</v>
-      </c>
-      <c r="CB19">
-        <v>0</v>
-      </c>
-      <c r="CC19">
-        <v>0</v>
-      </c>
       <c r="CD19">
-        <v>0</v>
+        <v>916</v>
       </c>
       <c r="CE19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CF19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CH19">
         <v>0</v>
       </c>
       <c r="CI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ19">
         <v>0</v>
@@ -6002,28 +7098,40 @@
         <v>0</v>
       </c>
       <c r="CN19">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CO19">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="CP19">
-        <v>0</v>
+        <v>2058</v>
+      </c>
+      <c r="CQ19">
+        <v>0.00510204081632653</v>
       </c>
       <c r="CR19">
-        <v>0</v>
+        <v>0.0945945945945946</v>
       </c>
       <c r="CS19">
-        <v>0</v>
+        <v>18.54054054054054</v>
+      </c>
+      <c r="CT19">
+        <v>0.0963302752293578</v>
+      </c>
+      <c r="CU19">
+        <v>18.88073394495413</v>
       </c>
       <c r="CW19">
-        <v>0</v>
+        <v>2374183.636363636</v>
       </c>
       <c r="CX19">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:102">
+        <v>235</v>
+      </c>
+      <c r="CY19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:103">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -6031,85 +7139,196 @@
         <v>7</v>
       </c>
       <c r="C20" s="2">
-        <v>44748</v>
+        <v>44761</v>
       </c>
       <c r="D20">
-        <v>433</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>453</v>
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="J20" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="M20">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="N20">
-        <v>187</v>
+        <v>120</v>
+      </c>
+      <c r="O20" t="s">
+        <v>191</v>
+      </c>
+      <c r="P20" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>218</v>
+      </c>
+      <c r="R20" t="s">
+        <v>227</v>
+      </c>
+      <c r="S20" t="s">
+        <v>238</v>
+      </c>
+      <c r="T20" t="s">
+        <v>249</v>
+      </c>
+      <c r="U20" t="s">
+        <v>258</v>
+      </c>
+      <c r="V20" t="s">
+        <v>270</v>
+      </c>
+      <c r="W20" t="s">
+        <v>274</v>
+      </c>
+      <c r="X20" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>346</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>288</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>371</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM20">
+        <v>176.6</v>
+      </c>
+      <c r="AN20">
+        <v>109.8</v>
       </c>
       <c r="AO20">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AP20">
-        <v>150</v>
+        <v>100</v>
+      </c>
+      <c r="AQ20">
+        <v>98.18181818181819</v>
+      </c>
+      <c r="AR20">
+        <v>110</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>380</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>177</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>385</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>392</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>176</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>176</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>383</v>
       </c>
       <c r="BQ20" t="s">
-        <v>243</v>
+        <v>400</v>
       </c>
       <c r="BR20" t="s">
-        <v>247</v>
+        <v>400</v>
       </c>
       <c r="BU20">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BV20" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>36</v>
       </c>
       <c r="BX20">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="BY20">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BZ20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CA20">
-        <v>0</v>
+        <v>1099</v>
       </c>
       <c r="CB20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CC20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CD20">
-        <v>0</v>
+        <v>967</v>
       </c>
       <c r="CE20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CF20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CG20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CH20">
         <v>0</v>
@@ -6130,25 +7349,323 @@
         <v>0</v>
       </c>
       <c r="CN20">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="CO20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="CP20">
-        <v>0</v>
+        <v>2066</v>
+      </c>
+      <c r="CQ20">
+        <v>0.005808325266214908</v>
       </c>
       <c r="CR20">
-        <v>0</v>
+        <v>0.1061946902654867</v>
       </c>
       <c r="CS20">
-        <v>0</v>
+        <v>18.28318584070797</v>
+      </c>
+      <c r="CT20">
+        <v>0.1092896174863388</v>
+      </c>
+      <c r="CU20">
+        <v>18.816029143898</v>
+      </c>
+      <c r="CV20">
+        <v>0.1222222222222222</v>
       </c>
       <c r="CW20">
-        <v>0</v>
+        <v>2383412.727272728</v>
       </c>
       <c r="CX20">
-        <v>109</v>
+        <v>235</v>
+      </c>
+      <c r="CY20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:103">
+      <c r="A21">
+        <v>2022</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44761</v>
+      </c>
+      <c r="D21">
+        <v>47</v>
+      </c>
+      <c r="E21">
+        <v>122</v>
+      </c>
+      <c r="G21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>280</v>
+      </c>
+      <c r="M21">
+        <v>267</v>
+      </c>
+      <c r="N21">
+        <v>292</v>
+      </c>
+      <c r="AO21">
+        <v>64</v>
+      </c>
+      <c r="AP21">
+        <v>113</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>179</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>383</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>257</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>395</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>401</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>415</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>416</v>
+      </c>
+      <c r="BU21">
+        <v>29</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>419</v>
+      </c>
+      <c r="BX21">
+        <v>0</v>
+      </c>
+      <c r="BY21">
+        <v>10</v>
+      </c>
+      <c r="BZ21">
+        <v>10</v>
+      </c>
+      <c r="CA21">
+        <v>10</v>
+      </c>
+      <c r="CB21">
+        <v>0</v>
+      </c>
+      <c r="CC21">
+        <v>0</v>
+      </c>
+      <c r="CD21">
+        <v>100</v>
+      </c>
+      <c r="CE21">
+        <v>1</v>
+      </c>
+      <c r="CF21">
+        <v>3</v>
+      </c>
+      <c r="CG21">
+        <v>6</v>
+      </c>
+      <c r="CH21">
+        <v>0</v>
+      </c>
+      <c r="CI21">
+        <v>0</v>
+      </c>
+      <c r="CJ21">
+        <v>0</v>
+      </c>
+      <c r="CK21">
+        <v>0</v>
+      </c>
+      <c r="CL21">
+        <v>0</v>
+      </c>
+      <c r="CM21">
+        <v>0</v>
+      </c>
+      <c r="CN21">
+        <v>10</v>
+      </c>
+      <c r="CO21">
+        <v>10</v>
+      </c>
+      <c r="CP21">
+        <v>110</v>
+      </c>
+      <c r="CQ21">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="CR21">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="CS21">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="CW21">
+        <v>75200</v>
+      </c>
+      <c r="CX21">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:103">
+      <c r="A22">
+        <v>2022</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44761</v>
+      </c>
+      <c r="D22">
+        <v>421</v>
+      </c>
+      <c r="E22">
+        <v>673</v>
+      </c>
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" t="s">
+        <v>165</v>
+      </c>
+      <c r="I22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>61</v>
+      </c>
+      <c r="M22">
+        <v>57</v>
+      </c>
+      <c r="N22">
+        <v>65</v>
+      </c>
+      <c r="AO22">
+        <v>18</v>
+      </c>
+      <c r="AP22">
+        <v>200</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>395</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>404</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>414</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>417</v>
+      </c>
+      <c r="BU22">
+        <v>29</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>40</v>
+      </c>
+      <c r="BX22">
+        <v>0</v>
+      </c>
+      <c r="BY22">
+        <v>0</v>
+      </c>
+      <c r="BZ22">
+        <v>0</v>
+      </c>
+      <c r="CA22">
+        <v>0</v>
+      </c>
+      <c r="CB22">
+        <v>0</v>
+      </c>
+      <c r="CC22">
+        <v>0</v>
+      </c>
+      <c r="CD22">
+        <v>0</v>
+      </c>
+      <c r="CE22">
+        <v>0</v>
+      </c>
+      <c r="CF22">
+        <v>0</v>
+      </c>
+      <c r="CG22">
+        <v>0</v>
+      </c>
+      <c r="CH22">
+        <v>0</v>
+      </c>
+      <c r="CI22">
+        <v>0</v>
+      </c>
+      <c r="CJ22">
+        <v>0</v>
+      </c>
+      <c r="CK22">
+        <v>0</v>
+      </c>
+      <c r="CL22">
+        <v>0</v>
+      </c>
+      <c r="CM22">
+        <v>0</v>
+      </c>
+      <c r="CN22">
+        <v>0</v>
+      </c>
+      <c r="CO22">
+        <v>0</v>
+      </c>
+      <c r="CP22">
+        <v>0</v>
+      </c>
+      <c r="CR22">
+        <v>0</v>
+      </c>
+      <c r="CS22">
+        <v>0</v>
+      </c>
+      <c r="CW22">
+        <v>0</v>
+      </c>
+      <c r="CX22">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
